--- a/gameData/shared/ProductionTechLevelUp.xlsx
+++ b/gameData/shared/ProductionTechLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="300" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="8"/>
+    <workbookView xWindow="8740" yWindow="1920" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="7">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -93,6 +93,9 @@
   <si>
     <t>INT_coin</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_buildTime</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -299,6 +302,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -312,7 +341,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="84">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -344,6 +373,19 @@
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -368,6 +410,19 @@
     <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -817,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -828,7 +883,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,10 +902,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -869,8 +927,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -889,8 +950,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -909,8 +973,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -929,8 +996,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -949,8 +1019,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -969,8 +1042,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -989,8 +1065,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1009,8 +1088,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1029,8 +1111,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1049,8 +1134,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1069,8 +1157,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1089,8 +1180,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1109,8 +1203,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1129,8 +1226,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1148,6 +1248,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -1164,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1175,7 +1278,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1194,10 +1297,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1216,8 +1322,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1236,8 +1345,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1256,8 +1368,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1276,8 +1391,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1296,8 +1414,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1316,8 +1437,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1336,8 +1460,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1356,8 +1483,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1376,8 +1506,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1396,8 +1529,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1416,8 +1552,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1436,8 +1575,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1456,8 +1598,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1476,8 +1621,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1495,6 +1643,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -1511,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1522,7 +1673,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1541,10 +1692,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1563,8 +1717,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1583,8 +1740,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1603,8 +1763,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1623,8 +1786,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1643,8 +1809,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1663,8 +1832,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1683,8 +1855,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1703,8 +1878,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1723,8 +1901,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1743,8 +1924,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1763,8 +1947,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1783,8 +1970,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1803,8 +1993,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1823,8 +2016,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1842,6 +2038,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -1858,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1869,7 +2068,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1888,10 +2087,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1910,8 +2112,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1930,8 +2135,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1950,8 +2158,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1970,8 +2181,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1990,8 +2204,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2010,8 +2227,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2030,8 +2250,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2050,8 +2273,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2070,8 +2296,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2090,8 +2319,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2110,8 +2342,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2130,8 +2365,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2150,8 +2388,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2170,8 +2411,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2189,6 +2433,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -2205,10 +2452,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2216,7 +2463,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2235,10 +2482,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2257,8 +2507,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2277,8 +2530,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2297,8 +2553,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2317,8 +2576,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2337,8 +2599,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2357,8 +2622,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2377,8 +2645,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2397,8 +2668,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2417,8 +2691,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2437,8 +2714,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2457,8 +2737,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2477,8 +2760,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2497,8 +2783,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2517,8 +2806,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2536,6 +2828,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -2552,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2563,7 +2858,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2582,10 +2877,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2604,8 +2902,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2624,8 +2925,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2644,8 +2948,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2664,8 +2971,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2684,8 +2994,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2704,8 +3017,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2724,8 +3040,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2744,8 +3063,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2764,8 +3086,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2784,8 +3109,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2804,8 +3132,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2824,8 +3155,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2844,8 +3178,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2864,8 +3201,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2883,6 +3223,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -2899,10 +3242,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2910,7 +3253,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2929,10 +3272,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2951,8 +3297,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2971,8 +3320,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2991,8 +3343,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3011,8 +3366,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3031,8 +3389,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3051,8 +3412,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3071,8 +3435,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3091,8 +3458,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3111,8 +3481,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3131,8 +3504,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3151,8 +3527,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3171,8 +3550,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3191,8 +3573,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3211,8 +3596,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3230,6 +3618,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -3246,10 +3637,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3257,7 +3648,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3276,10 +3667,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3298,8 +3692,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3318,8 +3715,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3338,8 +3738,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3358,8 +3761,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3378,8 +3784,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3398,8 +3807,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3418,8 +3830,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3438,8 +3853,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3458,8 +3876,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3478,8 +3899,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3498,8 +3922,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3518,8 +3945,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3538,8 +3968,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3558,8 +3991,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3577,6 +4013,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>
@@ -3593,10 +4032,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3604,7 +4043,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3623,10 +4062,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3645,8 +4087,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3665,8 +4110,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>34128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3685,8 +4133,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3705,8 +4156,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3725,8 +4179,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>68256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3745,8 +4202,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>91008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3765,8 +4225,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>113760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3785,8 +4248,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>136512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3805,8 +4271,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>159264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3825,8 +4294,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>182016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3845,8 +4317,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3865,8 +4340,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3885,8 +4363,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3905,8 +4386,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>204768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3924,6 +4408,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204768</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/ProductionTechLevelUp.xlsx
+++ b/gameData/shared/ProductionTechLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="1920" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="8"/>
+    <workbookView xWindow="3300" yWindow="100" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
@@ -239,7 +239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -328,6 +328,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -341,7 +343,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="86">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -386,6 +388,7 @@
     <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -423,6 +426,7 @@
     <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -875,7 +879,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -928,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -951,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>34128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -974,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>45504</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -997,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>56880</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -1020,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>68256</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -1043,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>91008</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -1066,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>113760</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -1089,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>136512</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -1112,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>159264</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -1135,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>182016</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -1158,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>204768</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -1181,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>204768</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -1204,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>204768</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -1227,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>204768</v>
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -1250,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>204768</v>
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1274,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1323,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1346,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>34128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -1369,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>45504</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -1392,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>56880</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -1415,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>68256</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -1438,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>91008</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -1461,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>113760</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -1484,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>136512</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -1507,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>159264</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -1530,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>182016</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -1553,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>204768</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -1576,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>204768</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -1599,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>204768</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -1622,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>204768</v>
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -1645,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>204768</v>
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1669,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1718,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1741,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>34128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -1764,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>45504</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -1787,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>56880</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -1810,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>68256</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -1833,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>91008</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -1856,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>113760</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -1879,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>136512</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -1902,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>159264</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -1925,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>182016</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -1948,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>204768</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -1971,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>204768</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -1994,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>204768</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2017,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>204768</v>
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2040,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>204768</v>
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2064,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2113,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -2136,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>34128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2159,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>45504</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -2182,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>56880</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2205,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>68256</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -2228,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>91008</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -2251,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>113760</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -2274,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>136512</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -2297,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>159264</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -2320,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>182016</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -2343,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>204768</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2366,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>204768</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2389,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>204768</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2412,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>204768</v>
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2435,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>204768</v>
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -2455,7 +2459,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2508,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -2531,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>34128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2554,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>45504</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -2577,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>56880</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2600,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>68256</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -2623,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>91008</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -2646,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>113760</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -2669,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>136512</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -2692,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>159264</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -2715,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>182016</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -2738,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>204768</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2761,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>204768</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2784,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>204768</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2807,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>204768</v>
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2830,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>204768</v>
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -2850,7 +2854,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2903,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -2926,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>34128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2949,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>45504</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -2972,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>56880</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2995,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>68256</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -3018,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>91008</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -3041,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>113760</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -3064,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>136512</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -3087,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>159264</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -3110,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>182016</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -3133,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>204768</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -3156,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>204768</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -3179,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>204768</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -3202,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>204768</v>
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -3225,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>204768</v>
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -3245,7 +3249,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3298,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -3321,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>34128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -3344,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>45504</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -3367,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>56880</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -3390,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>68256</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -3413,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>91008</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -3436,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>113760</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -3459,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>136512</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -3482,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>159264</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -3505,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>182016</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -3528,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>204768</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -3551,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>204768</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -3574,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>204768</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -3597,7 +3601,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>204768</v>
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -3620,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>204768</v>
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3644,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3693,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -3716,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>34128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -3739,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>45504</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -3762,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>56880</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -3785,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>68256</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -3808,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>91008</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -3831,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>113760</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -3854,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>136512</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -3877,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>159264</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -3900,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>182016</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -3923,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>204768</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -3946,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>204768</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -3969,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>204768</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -3992,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>204768</v>
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4015,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>204768</v>
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -4035,7 +4039,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4088,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>34128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -4111,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>34128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -4134,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>45504</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -4157,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>56880</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -4180,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>68256</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -4203,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>91008</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -4226,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>113760</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -4249,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>136512</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -4272,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>159264</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -4295,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>182016</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -4318,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>204768</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -4341,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>204768</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4364,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>204768</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -4387,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>204768</v>
+        <v>37152</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4410,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>204768</v>
+        <v>49536</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/ProductionTechLevelUp.xlsx
+++ b/gameData/shared/ProductionTechLevelUp.xlsx
@@ -4,59 +4,104 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="100" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="8"/>
+    <workbookView xWindow="3720" yWindow="560" windowWidth="27520" windowHeight="14540" tabRatio="883" firstSheet="2" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
-    <sheet name="fastFix" sheetId="28" r:id="rId2"/>
-    <sheet name="reinforcing" sheetId="29" r:id="rId3"/>
-    <sheet name="stoneCarving" sheetId="30" r:id="rId4"/>
+    <sheet name="stoneCarving" sheetId="30" r:id="rId2"/>
+    <sheet name="forestation" sheetId="33" r:id="rId3"/>
+    <sheet name="fastFix" sheetId="28" r:id="rId4"/>
     <sheet name="ironSmelting" sheetId="31" r:id="rId5"/>
-    <sheet name="seniorTower" sheetId="32" r:id="rId6"/>
-    <sheet name="forestation" sheetId="33" r:id="rId7"/>
-    <sheet name="cropResearch" sheetId="34" r:id="rId8"/>
+    <sheet name="cropResearch" sheetId="34" r:id="rId6"/>
+    <sheet name="reinforcing" sheetId="29" r:id="rId7"/>
+    <sheet name="seniorTower" sheetId="32" r:id="rId8"/>
     <sheet name="beerSupply" sheetId="35" r:id="rId9"/>
+    <sheet name="rescueTent" sheetId="36" r:id="rId10"/>
+    <sheet name="colonization" sheetId="37" r:id="rId11"/>
+    <sheet name="negotiation" sheetId="38" r:id="rId12"/>
+    <sheet name="trap" sheetId="39" r:id="rId13"/>
+    <sheet name="hideout" sheetId="40" r:id="rId14"/>
+    <sheet name="logistics" sheetId="41" r:id="rId15"/>
+    <sheet name="healingAgent" sheetId="42" r:id="rId16"/>
+    <sheet name="sketching" sheetId="43" r:id="rId17"/>
+    <sheet name="mintedCoin" sheetId="44" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -69,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="7">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -239,7 +284,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -330,6 +375,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -343,7 +390,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="88">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -389,6 +436,7 @@
     <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -427,6 +475,7 @@
     <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1269,6 +1318,3561 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
@@ -4038,7 +7642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/ProductionTechLevelUp.xlsx
+++ b/gameData/shared/ProductionTechLevelUp.xlsx
@@ -1,107 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="2560" yWindow="640" windowWidth="34180" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
-    <sheet name="stoneCarving" sheetId="30" r:id="rId2"/>
-    <sheet name="forestation" sheetId="33" r:id="rId3"/>
-    <sheet name="fastFix" sheetId="28" r:id="rId4"/>
-    <sheet name="ironSmelting" sheetId="31" r:id="rId5"/>
-    <sheet name="cropResearch" sheetId="34" r:id="rId6"/>
-    <sheet name="reinforcing" sheetId="29" r:id="rId7"/>
-    <sheet name="seniorTower" sheetId="32" r:id="rId8"/>
-    <sheet name="beerSupply" sheetId="35" r:id="rId9"/>
-    <sheet name="rescueTent" sheetId="36" r:id="rId10"/>
-    <sheet name="colonization" sheetId="37" r:id="rId11"/>
-    <sheet name="negotiation" sheetId="38" r:id="rId12"/>
-    <sheet name="trap" sheetId="39" r:id="rId13"/>
-    <sheet name="hideout" sheetId="40" r:id="rId14"/>
-    <sheet name="logistics" sheetId="41" r:id="rId15"/>
-    <sheet name="healingAgent" sheetId="42" r:id="rId16"/>
-    <sheet name="sketching" sheetId="43" r:id="rId17"/>
+    <sheet name="fastFix" sheetId="28" r:id="rId2"/>
+    <sheet name="reinforcing" sheetId="29" r:id="rId3"/>
+    <sheet name="rescueTent" sheetId="36" r:id="rId4"/>
+    <sheet name="colonization" sheetId="37" r:id="rId5"/>
+    <sheet name="negotiation" sheetId="38" r:id="rId6"/>
+    <sheet name="seniorTower" sheetId="32" r:id="rId7"/>
+    <sheet name="trap" sheetId="39" r:id="rId8"/>
+    <sheet name="forestation" sheetId="33" r:id="rId9"/>
+    <sheet name="stoneCarving" sheetId="30" r:id="rId10"/>
+    <sheet name="ironSmelting" sheetId="31" r:id="rId11"/>
+    <sheet name="cropResearch" sheetId="34" r:id="rId12"/>
+    <sheet name="beerSupply" sheetId="35" r:id="rId13"/>
+    <sheet name="healingAgent" sheetId="42" r:id="rId14"/>
+    <sheet name="sketching" sheetId="43" r:id="rId15"/>
+    <sheet name="hideout" sheetId="40" r:id="rId16"/>
+    <sheet name="logistics" sheetId="41" r:id="rId17"/>
     <sheet name="mintedCoin" sheetId="44" r:id="rId18"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="9">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -141,6 +141,14 @@
   </si>
   <si>
     <t>INT_buildTime</t>
+  </si>
+  <si>
+    <t>INT_academyLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -297,7 +305,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="238">
+  <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -312,6 +320,130 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -556,7 +688,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="238">
+  <cellStyles count="362">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -678,6 +810,68 @@
     <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -792,6 +986,68 @@
     <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1243,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1274,15 +1530,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>660</v>
+        <v>1980</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1297,7 +1557,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>600</v>
+        <v>1200</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1305,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1740</v>
+        <v>5220</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1320,7 +1586,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1200</v>
+        <v>2400</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -1328,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4560</v>
+        <v>13680</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1343,7 +1615,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2400</v>
+        <v>4800</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -1351,7 +1629,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8460</v>
+        <v>25380</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1366,7 +1644,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3600</v>
+        <v>7200</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -1374,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13920</v>
+        <v>41760</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1389,7 +1673,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7200</v>
+        <v>14400</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -1397,7 +1687,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21000</v>
+        <v>63000</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1412,7 +1702,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>14400</v>
+        <v>28800</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1260</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -1420,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>39840</v>
+        <v>119520</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1435,7 +1731,13 @@
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>21600</v>
+        <v>43200</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -1443,7 +1745,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54880</v>
+        <v>164640</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1458,7 +1760,13 @@
         <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>28800</v>
+        <v>57600</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3300</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -1466,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>72320</v>
+        <v>216960</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1481,7 +1789,13 @@
         <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>36000</v>
+        <v>72000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4340</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -1489,7 +1803,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>93600</v>
+        <v>280800</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1504,7 +1818,13 @@
         <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>43200</v>
+        <v>86400</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5620</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -1512,7 +1832,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>118400</v>
+        <v>355200</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1527,7 +1847,13 @@
         <v>120</v>
       </c>
       <c r="G12" s="1">
-        <v>50400</v>
+        <v>100800</v>
+      </c>
+      <c r="H12" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7110</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -1535,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>183700</v>
+        <v>551100</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1550,7 +1876,13 @@
         <v>240</v>
       </c>
       <c r="G13" s="1">
-        <v>57600</v>
+        <v>115200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1">
+        <v>11030</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -1558,7 +1890,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>225600</v>
+        <v>676800</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1573,7 +1905,13 @@
         <v>480</v>
       </c>
       <c r="G14" s="1">
-        <v>64800</v>
+        <v>129600</v>
+      </c>
+      <c r="H14" s="1">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1">
+        <v>13540</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -1581,7 +1919,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>271700</v>
+        <v>815100</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1596,7 +1934,13 @@
         <v>720</v>
       </c>
       <c r="G15" s="1">
-        <v>72000</v>
+        <v>144000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1">
+        <v>16310</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -1604,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>384000</v>
+        <v>1152000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1619,7 +1963,13 @@
         <v>960</v>
       </c>
       <c r="G16" s="1">
-        <v>79200</v>
+        <v>158400</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <v>23040</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1989,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1669,15 +2019,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>687</v>
+        <v>1610</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1692,7 +2046,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1224</v>
+        <v>780</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1700,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1810</v>
+        <v>4250</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1715,7 +2075,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1848</v>
+        <v>1560</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -1723,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4743</v>
+        <v>11120</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1738,7 +2104,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3096</v>
+        <v>3120</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -1746,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8799</v>
+        <v>20630</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1761,7 +2133,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4344</v>
+        <v>4680</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -1769,7 +2147,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>14477</v>
+        <v>33930</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1784,7 +2162,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8088</v>
+        <v>9360</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -1792,7 +2176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21840</v>
+        <v>51190</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1801,13 +2185,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>15576</v>
+        <v>18720</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1030</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -1815,7 +2205,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>41434</v>
+        <v>97110</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1824,13 +2214,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>23064</v>
+        <v>28080</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1950</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -1838,7 +2234,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>57076</v>
+        <v>133770</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1847,13 +2243,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>30552</v>
+        <v>37440</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2680</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -1861,7 +2263,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>75213</v>
+        <v>176280</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1870,13 +2272,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>38040</v>
+        <v>46800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3530</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -1884,22 +2292,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>97344</v>
+        <v>228150</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>45528</v>
+        <v>56160</v>
+      </c>
+      <c r="H11" s="1">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4570</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -1907,22 +2321,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>123136</v>
+        <v>288600</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>53016</v>
+        <v>65520</v>
+      </c>
+      <c r="H12" s="1">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5780</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -1930,22 +2350,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>191048</v>
+        <v>447770</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>60504</v>
+        <v>74880</v>
+      </c>
+      <c r="H13" s="1">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8960</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -1953,22 +2379,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>234624</v>
+        <v>549900</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>67992</v>
+        <v>84240</v>
+      </c>
+      <c r="H14" s="1">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1">
+        <v>11000</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -1976,22 +2408,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>282568</v>
+        <v>662270</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>75480</v>
+        <v>93600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1">
+        <v>13250</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -1999,22 +2437,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>399360</v>
+        <v>936000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>82968</v>
+        <v>102960</v>
+      </c>
+      <c r="H16" s="1">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1">
+        <v>18720</v>
       </c>
     </row>
   </sheetData>
@@ -2034,7 +2478,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2064,15 +2508,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>753</v>
+        <v>1740</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2081,13 +2529,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1884</v>
+        <v>840</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -2095,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1984</v>
+        <v>4570</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2104,13 +2558,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2568</v>
+        <v>1680</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2118,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5199</v>
+        <v>11970</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2127,13 +2587,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3936</v>
+        <v>3360</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -2141,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9645</v>
+        <v>22210</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2150,13 +2616,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>5304</v>
+        <v>5040</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2164,7 +2636,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15869</v>
+        <v>36540</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -2173,13 +2645,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>9408</v>
+        <v>10080</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -2187,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23940</v>
+        <v>55130</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2196,13 +2674,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>17616</v>
+        <v>20160</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1110</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -2210,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45418</v>
+        <v>104580</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2219,13 +2703,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>25824</v>
+        <v>30240</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2100</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -2233,7 +2723,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>62564</v>
+        <v>144060</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -2242,13 +2732,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>34032</v>
+        <v>40320</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2890</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -2256,7 +2752,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>82445</v>
+        <v>189840</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -2265,13 +2761,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>42240</v>
+        <v>50400</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3800</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -2279,7 +2781,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>106704</v>
+        <v>245700</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -2288,13 +2790,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
-        <v>50448</v>
+        <v>60480</v>
+      </c>
+      <c r="H11" s="1">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4920</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -2302,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>134976</v>
+        <v>310800</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2311,13 +2819,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
-        <v>58656</v>
+        <v>70560</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6220</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2325,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>209418</v>
+        <v>482220</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -2334,13 +2848,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
-        <v>66864</v>
+        <v>80640</v>
+      </c>
+      <c r="H13" s="1">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9650</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2348,7 +2868,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>257184</v>
+        <v>592200</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -2357,13 +2877,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1">
-        <v>75072</v>
+        <v>90720</v>
+      </c>
+      <c r="H14" s="1">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1">
+        <v>11850</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2371,7 +2897,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>309738</v>
+        <v>713220</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2380,13 +2906,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G15" s="1">
-        <v>83280</v>
+        <v>100800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1">
+        <v>14270</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2394,7 +2926,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>437760</v>
+        <v>1008000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -2403,13 +2935,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G16" s="1">
-        <v>91488</v>
+        <v>110880</v>
+      </c>
+      <c r="H16" s="1">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1">
+        <v>20160</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +2967,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F16"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2459,18 +2997,22 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>792</v>
+        <v>1370</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -2482,7 +3024,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>2320</v>
+        <v>660</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -2490,10 +3038,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2088</v>
+        <v>3590</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -2505,7 +3053,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>3040</v>
+        <v>1320</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2513,10 +3067,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5472</v>
+        <v>9410</v>
       </c>
       <c r="C4" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -2528,7 +3082,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>4480</v>
+        <v>2640</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -2536,10 +3096,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10152</v>
+        <v>17450</v>
       </c>
       <c r="C5" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -2551,7 +3111,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>5920</v>
+        <v>3961</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2559,10 +3125,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16704</v>
+        <v>28710</v>
       </c>
       <c r="C6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2574,7 +3140,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>10240</v>
+        <v>7921</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -2582,10 +3154,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>25200</v>
+        <v>43320</v>
       </c>
       <c r="C7" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -2597,7 +3169,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>18880</v>
+        <v>15841</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -2605,10 +3183,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>47808</v>
+        <v>82170</v>
       </c>
       <c r="C8" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -2620,7 +3198,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>27520</v>
+        <v>23761</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1650</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -2628,10 +3212,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>65856</v>
+        <v>113190</v>
       </c>
       <c r="C9" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -2643,7 +3227,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>36160</v>
+        <v>31681</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2270</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -2651,10 +3241,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>86784</v>
+        <v>149160</v>
       </c>
       <c r="C10" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -2666,7 +3256,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>44800</v>
+        <v>39600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2990</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -2674,13 +3270,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>112320</v>
+        <v>193050</v>
       </c>
       <c r="C11" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2689,7 +3285,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>53440</v>
+        <v>47521</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3870</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -2697,13 +3299,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>142080</v>
+        <v>244200</v>
       </c>
       <c r="C12" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2712,7 +3314,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>62080</v>
+        <v>55441</v>
+      </c>
+      <c r="H12" s="1">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4890</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2720,13 +3328,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220440</v>
+        <v>378890</v>
       </c>
       <c r="C13" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2735,7 +3343,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>70720</v>
+        <v>63361</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7580</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2743,13 +3357,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>270720</v>
+        <v>465300</v>
       </c>
       <c r="C14" s="1">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2758,7 +3372,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>79360</v>
+        <v>71280</v>
+      </c>
+      <c r="H14" s="1">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9310</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2766,13 +3386,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>326040</v>
+        <v>560390</v>
       </c>
       <c r="C15" s="1">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2781,7 +3401,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>88000</v>
+        <v>79200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1">
+        <v>11210</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2789,13 +3415,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>460800</v>
+        <v>792000</v>
       </c>
       <c r="C16" s="1">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2804,7 +3430,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>96640</v>
+        <v>87120</v>
+      </c>
+      <c r="H16" s="1">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1">
+        <v>15840</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +3456,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H2" sqref="H2:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2854,15 +3486,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>766</v>
+        <v>2230</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2877,15 +3513,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1696</v>
+        <v>1880</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>2019</v>
+      <c r="B3" s="1">
+        <v>5880</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2900,15 +3542,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2392</v>
+        <v>2960</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>5290</v>
+      <c r="B4" s="1">
+        <v>15390</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2923,15 +3571,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3784</v>
+        <v>5120</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>9814</v>
+      <c r="B5" s="1">
+        <v>28560</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2946,21 +3600,27 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>5176</v>
+        <v>7280</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>16148</v>
+      <c r="B6" s="1">
+        <v>46980</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2969,21 +3629,27 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>9352</v>
+        <v>13760</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>940</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>24360</v>
+      <c r="B7" s="1">
+        <v>70880</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2992,21 +3658,27 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>17704</v>
+        <v>26720</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1420</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>46215</v>
+      <c r="B8" s="1">
+        <v>134460</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -3015,21 +3687,27 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>26056</v>
+        <v>39680</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2690</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>63661</v>
+      <c r="B9" s="1">
+        <v>185220</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -3038,21 +3716,27 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>34408</v>
+        <v>52640</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3710</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>83892</v>
+      <c r="B10" s="1">
+        <v>244080</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3061,21 +3745,27 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>42760</v>
+        <v>65600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4890</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>108576</v>
+      <c r="B11" s="1">
+        <v>315900</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -3084,21 +3774,27 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>51112</v>
+        <v>78560</v>
+      </c>
+      <c r="H11" s="1">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6320</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>137344</v>
+      <c r="B12" s="1">
+        <v>399600</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3107,21 +3803,27 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>59464</v>
+        <v>91520</v>
+      </c>
+      <c r="H12" s="1">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>213092</v>
+      <c r="B13" s="1">
+        <v>619990</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3130,21 +3832,27 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>67816</v>
+        <v>104480</v>
+      </c>
+      <c r="H13" s="1">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>12400</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>261696</v>
+      <c r="B14" s="1">
+        <v>761400</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3153,21 +3861,27 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>76168</v>
+        <v>117440</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1">
+        <v>15230</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>315172</v>
+      <c r="B15" s="1">
+        <v>916990</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3176,21 +3890,27 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>84520</v>
+        <v>130400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1">
+        <v>18340</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>445440</v>
+      <c r="B16" s="1">
+        <v>1296000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1680</v>
+        <v>960</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -3199,7 +3919,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>92872</v>
+        <v>143360</v>
+      </c>
+      <c r="H16" s="1">
+        <v>24</v>
+      </c>
+      <c r="I16" s="1">
+        <v>25920</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3945,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="G2" sqref="G2:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3249,15 +3975,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>740</v>
+        <v>2600</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3272,7 +4002,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1873</v>
+        <v>2860</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -3280,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1949</v>
+        <v>6860</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3295,7 +4031,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2545</v>
+        <v>4120</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -3303,7 +4045,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5108</v>
+        <v>17960</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -3318,7 +4060,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3889</v>
+        <v>6640</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1">
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -3326,7 +4074,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9476</v>
+        <v>33320</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -3341,7 +4089,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>5233</v>
+        <v>9160</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -3349,7 +4103,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15591</v>
+        <v>54810</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -3358,13 +4112,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>9265</v>
+        <v>16720</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -3372,22 +4132,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23521</v>
+        <v>82690</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>17329</v>
+        <v>31840</v>
+      </c>
+      <c r="H7" s="1">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1660</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -3395,22 +4161,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44621</v>
+        <v>156870</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>25393</v>
+        <v>46960</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3140</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -3418,22 +4190,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>61466</v>
+        <v>216090</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>33457</v>
+        <v>62080</v>
+      </c>
+      <c r="H9" s="1">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4330</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -3441,22 +4219,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>80999</v>
+        <v>284760</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>41521</v>
+        <v>77200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5700</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -3464,22 +4248,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>104833</v>
+        <v>368550</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>49585</v>
+        <v>92320</v>
+      </c>
+      <c r="H11" s="1">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7380</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -3487,22 +4277,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>132608</v>
+        <v>466200</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>57649</v>
+        <v>107440</v>
+      </c>
+      <c r="H12" s="1">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9330</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -3510,22 +4306,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>205745</v>
+        <v>723320</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>65713</v>
+        <v>122560</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1">
+        <v>14470</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -3533,22 +4335,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>252673</v>
+        <v>888300</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>73776</v>
+        <v>137680</v>
+      </c>
+      <c r="H14" s="1">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1">
+        <v>17770</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -3556,22 +4364,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>304304</v>
+        <v>1069820</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>81841</v>
+        <v>152800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1">
+        <v>21400</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -3579,22 +4393,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>430081</v>
+        <v>1512000</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>89905</v>
+        <v>167920</v>
+      </c>
+      <c r="H16" s="1">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1">
+        <v>30240</v>
       </c>
     </row>
   </sheetData>
@@ -3614,7 +4434,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3644,15 +4464,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>594</v>
+        <v>2480</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3667,15 +4491,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1740</v>
+        <v>2800</v>
+      </c>
+      <c r="H2" s="1">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>1566</v>
+      <c r="B3" s="1">
+        <v>6530</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3690,15 +4520,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2280</v>
+        <v>4000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>4104</v>
+      <c r="B4" s="1">
+        <v>17100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -3713,15 +4549,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3360</v>
+        <v>6400</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>7614</v>
+      <c r="B5" s="1">
+        <v>31730</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -3736,15 +4578,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4440</v>
+        <v>8800</v>
+      </c>
+      <c r="H5" s="1">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1">
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>12528</v>
+      <c r="B6" s="1">
+        <v>52200</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -3756,21 +4604,27 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7680</v>
+        <v>16000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1050</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>18900</v>
+      <c r="B7" s="1">
+        <v>78750</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -3779,21 +4633,27 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>14160</v>
+        <v>30400</v>
+      </c>
+      <c r="H7" s="1">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1580</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>35856</v>
+      <c r="B8" s="1">
+        <v>149400</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -3802,21 +4662,27 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>20640</v>
+        <v>44800</v>
+      </c>
+      <c r="H8" s="1">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2990</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>49392</v>
+      <c r="B9" s="1">
+        <v>205800</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3825,21 +4691,27 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>27120</v>
+        <v>59200</v>
+      </c>
+      <c r="H9" s="1">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4120</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>65088</v>
+      <c r="B10" s="1">
+        <v>271200</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3848,21 +4720,27 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>33600</v>
+        <v>73600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5430</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>84240</v>
+      <c r="B11" s="1">
+        <v>351000</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -3871,21 +4749,27 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>40080</v>
+        <v>88000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7020</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>106560</v>
+      <c r="B12" s="1">
+        <v>444000</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -3894,21 +4778,27 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>46560</v>
+        <v>102400</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8880</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>165330</v>
+      <c r="B13" s="1">
+        <v>688880</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -3917,21 +4807,27 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>53040</v>
+        <v>116800</v>
+      </c>
+      <c r="H13" s="1">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1">
+        <v>13780</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>203040</v>
+      <c r="B14" s="1">
+        <v>846000</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -3940,21 +4836,27 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>59520</v>
+        <v>131200</v>
+      </c>
+      <c r="H14" s="1">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1">
+        <v>16920</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>244530</v>
+      <c r="B15" s="1">
+        <v>1018880</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -3963,21 +4865,27 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>66000</v>
+        <v>145600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1">
+        <v>20380</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>345600</v>
+      <c r="B16" s="1">
+        <v>1440000</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -3986,10 +4894,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>72480</v>
+        <v>160000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1">
+        <v>28800</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +4923,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4039,15 +4953,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>608</v>
+        <v>2600</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4062,7 +4980,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1352</v>
+        <v>3660</v>
+      </c>
+      <c r="H2" s="1">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -4070,7 +4994,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1601</v>
+        <v>6860</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4085,7 +5009,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1904</v>
+        <v>4920</v>
+      </c>
+      <c r="H3" s="1">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -4093,7 +5023,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4196</v>
+        <v>17960</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4108,7 +5038,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3008</v>
+        <v>7440</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -4116,7 +5052,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7784</v>
+        <v>33320</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4131,7 +5067,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4112</v>
+        <v>9960</v>
+      </c>
+      <c r="H5" s="1">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -4139,7 +5081,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>12807</v>
+        <v>54810</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4148,13 +5090,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7424</v>
+        <v>17520</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -4162,22 +5110,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>19320</v>
+        <v>82690</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>14048</v>
+        <v>32640</v>
+      </c>
+      <c r="H7" s="1">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1660</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -4185,22 +5139,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>36653</v>
+        <v>156870</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>20672</v>
+        <v>47760</v>
+      </c>
+      <c r="H8" s="1">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3140</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -4208,22 +5168,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>50490</v>
+        <v>216090</v>
       </c>
       <c r="C9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>27296</v>
+        <v>62880</v>
+      </c>
+      <c r="H9" s="1">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4330</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -4231,22 +5197,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>66535</v>
+        <v>284760</v>
       </c>
       <c r="C10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>33920</v>
+        <v>78000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5700</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -4254,22 +5226,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>86112</v>
+        <v>368550</v>
       </c>
       <c r="C11" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>40544</v>
+        <v>93120</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7380</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -4277,22 +5255,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>108928</v>
+        <v>466200</v>
       </c>
       <c r="C12" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>47168</v>
+        <v>108240</v>
+      </c>
+      <c r="H12" s="1">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9330</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -4300,22 +5284,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>169004</v>
+        <v>723320</v>
       </c>
       <c r="C13" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>53792</v>
+        <v>123360</v>
+      </c>
+      <c r="H13" s="1">
+        <v>24</v>
+      </c>
+      <c r="I13" s="1">
+        <v>14470</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4323,22 +5313,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>207552</v>
+        <v>888300</v>
       </c>
       <c r="C14" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>60416</v>
+        <v>138480</v>
+      </c>
+      <c r="H14" s="1">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1">
+        <v>17770</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -4346,22 +5342,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>249964</v>
+        <v>1069820</v>
       </c>
       <c r="C15" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>67040</v>
+        <v>153600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1">
+        <v>21400</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4369,22 +5371,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>353280</v>
+        <v>1512000</v>
       </c>
       <c r="C16" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>73664</v>
+        <v>168720</v>
+      </c>
+      <c r="H16" s="1">
+        <v>30</v>
+      </c>
+      <c r="I16" s="1">
+        <v>30240</v>
       </c>
     </row>
   </sheetData>
@@ -4404,7 +5412,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4434,15 +5442,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>608</v>
+      <c r="B2" s="4">
+        <v>2110</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4457,15 +5469,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1352</v>
+        <v>3420</v>
+      </c>
+      <c r="H2" s="1">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1601</v>
+      <c r="B3" s="4">
+        <v>5550</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4480,15 +5498,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1904</v>
+        <v>4440</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>4196</v>
+      <c r="B4" s="4">
+        <v>14540</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4503,15 +5527,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3008</v>
+        <v>6480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>7784</v>
+      <c r="B5" s="4">
+        <v>26970</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4526,15 +5556,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4112</v>
+        <v>8520</v>
+      </c>
+      <c r="H5" s="1">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1">
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>12807</v>
+      <c r="B6" s="4">
+        <v>44370</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4546,21 +5582,27 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>7424</v>
+        <v>14640</v>
+      </c>
+      <c r="H6" s="1">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
+        <v>890</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>19320</v>
+      <c r="B7" s="4">
+        <v>66940</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4569,21 +5611,27 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1">
-        <v>14048</v>
+        <v>26880</v>
+      </c>
+      <c r="H7" s="1">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1340</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>36653</v>
+      <c r="B8" s="4">
+        <v>126990</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -4592,21 +5640,27 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1">
-        <v>20672</v>
+        <v>39120</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2540</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>50490</v>
+      <c r="B9" s="4">
+        <v>174930</v>
       </c>
       <c r="C9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -4615,21 +5669,27 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1">
-        <v>27296</v>
+        <v>51360</v>
+      </c>
+      <c r="H9" s="1">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3500</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>66535</v>
+      <c r="B10" s="4">
+        <v>230520</v>
       </c>
       <c r="C10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -4638,21 +5698,27 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G10" s="1">
-        <v>33920</v>
+        <v>63600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4620</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>86112</v>
+      <c r="B11" s="4">
+        <v>298350</v>
       </c>
       <c r="C11" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -4661,21 +5727,27 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G11" s="1">
-        <v>40544</v>
+        <v>75840</v>
+      </c>
+      <c r="H11" s="1">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5970</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>108928</v>
+      <c r="B12" s="4">
+        <v>377400</v>
       </c>
       <c r="C12" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -4684,21 +5756,27 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="G12" s="1">
-        <v>47168</v>
+        <v>88080</v>
+      </c>
+      <c r="H12" s="1">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7550</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>169004</v>
+      <c r="B13" s="4">
+        <v>585550</v>
       </c>
       <c r="C13" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -4707,21 +5785,27 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="G13" s="1">
-        <v>53792</v>
+        <v>100320</v>
+      </c>
+      <c r="H13" s="1">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1">
+        <v>11720</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>207552</v>
+      <c r="B14" s="4">
+        <v>719100</v>
       </c>
       <c r="C14" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -4730,21 +5814,27 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="1">
-        <v>60416</v>
+        <v>112560</v>
+      </c>
+      <c r="H14" s="1">
+        <v>29</v>
+      </c>
+      <c r="I14" s="1">
+        <v>14390</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>249964</v>
+      <c r="B15" s="4">
+        <v>866050</v>
       </c>
       <c r="C15" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -4753,10 +5843,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="G15" s="1">
-        <v>67040</v>
+        <v>124800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>31</v>
+      </c>
+      <c r="I15" s="1">
+        <v>17330</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4764,10 +5860,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>353280</v>
+        <v>1224000</v>
       </c>
       <c r="C16" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -4776,10 +5872,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="G16" s="1">
-        <v>73664</v>
+        <v>137040</v>
+      </c>
+      <c r="H16" s="1">
+        <v>33</v>
+      </c>
+      <c r="I16" s="1">
+        <v>24480</v>
       </c>
     </row>
   </sheetData>
@@ -4799,7 +5901,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4829,15 +5931,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>832</v>
+        <v>3960</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4852,7 +5958,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>2756</v>
+        <v>5920</v>
+      </c>
+      <c r="H2" s="1">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -4860,7 +5972,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2193</v>
+        <v>10440</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4875,7 +5987,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>3512</v>
+        <v>7840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1">
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -4883,7 +6001,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5746</v>
+        <v>27360</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4898,7 +6016,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>5024</v>
+        <v>11680</v>
+      </c>
+      <c r="H4" s="1">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1">
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -4906,7 +6030,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10660</v>
+        <v>50760</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4921,7 +6045,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>6536</v>
+        <v>15520</v>
+      </c>
+      <c r="H5" s="1">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1020</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -4929,7 +6059,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>17540</v>
+        <v>83520</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4944,7 +6074,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>11072</v>
+        <v>27040</v>
+      </c>
+      <c r="H6" s="1">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1680</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -4952,7 +6088,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>26460</v>
+        <v>126000</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4967,7 +6103,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>20144</v>
+        <v>50080</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2520</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -4975,7 +6117,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>50199</v>
+        <v>239040</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -4990,7 +6132,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>29216</v>
+        <v>73120</v>
+      </c>
+      <c r="H8" s="1">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4790</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -4998,7 +6146,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>69149</v>
+        <v>329280</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -5013,7 +6161,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>38288</v>
+        <v>96160</v>
+      </c>
+      <c r="H9" s="1">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6590</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -5021,7 +6175,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>91124</v>
+        <v>433920</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -5036,7 +6190,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>47360</v>
+        <v>119200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8680</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -5044,7 +6204,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>117936</v>
+        <v>561600</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -5059,7 +6219,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>56432</v>
+        <v>142240</v>
+      </c>
+      <c r="H11" s="1">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1">
+        <v>11240</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -5067,7 +6233,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>149184</v>
+        <v>710400</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -5082,7 +6248,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>65504</v>
+        <v>165280</v>
+      </c>
+      <c r="H12" s="1">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1">
+        <v>14210</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -5090,7 +6262,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>231462</v>
+        <v>1102200</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -5105,7 +6277,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>74576</v>
+        <v>188320</v>
+      </c>
+      <c r="H13" s="1">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1">
+        <v>22050</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -5113,7 +6291,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>284256</v>
+        <v>1353600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -5128,7 +6306,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>83648</v>
+        <v>211360</v>
+      </c>
+      <c r="H14" s="1">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1">
+        <v>27080</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -5136,7 +6320,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>342342</v>
+        <v>1630200</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -5151,7 +6335,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>92720</v>
+        <v>234400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1">
+        <v>32610</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -5159,7 +6349,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>483840</v>
+        <v>2304000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -5174,7 +6364,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>101792</v>
+        <v>257440</v>
+      </c>
+      <c r="H16" s="1">
+        <v>34</v>
+      </c>
+      <c r="I16" s="1">
+        <v>46080</v>
       </c>
     </row>
   </sheetData>
@@ -5194,7 +6390,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5224,15 +6420,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>542</v>
+        <v>2730</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -5247,7 +6447,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>492</v>
+        <v>1920</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -5255,7 +6461,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1427</v>
+        <v>7180</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -5270,7 +6476,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>984</v>
+        <v>3240</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -5278,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3740</v>
+        <v>18810</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -5293,7 +6505,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1968</v>
+        <v>5880</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -5301,7 +6519,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>6938</v>
+        <v>34900</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -5316,7 +6534,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>2952</v>
+        <v>8521</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -5324,7 +6548,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11415</v>
+        <v>57420</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5339,7 +6563,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>5904</v>
+        <v>16441</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1150</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -5347,7 +6577,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>17220</v>
+        <v>86630</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -5359,10 +6589,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>11808</v>
+        <v>32281</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1740</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -5370,7 +6606,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>32669</v>
+        <v>164340</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -5382,10 +6618,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>17712</v>
+        <v>48121</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3290</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -5393,7 +6635,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45002</v>
+        <v>226380</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -5405,10 +6647,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>23616</v>
+        <v>63961</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4530</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -5416,7 +6664,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>59303</v>
+        <v>298320</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -5428,10 +6676,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>29520</v>
+        <v>79800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5970</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -5439,22 +6693,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>76752</v>
+        <v>386100</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>35424</v>
+        <v>95641</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7730</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -5462,22 +6722,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>97088</v>
+        <v>488400</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1">
-        <v>41328</v>
+        <v>111481</v>
+      </c>
+      <c r="H12" s="1">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9770</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -5485,22 +6751,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>150634</v>
+        <v>757770</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G13" s="1">
-        <v>47232</v>
+        <v>127321</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1">
+        <v>15160</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -5508,22 +6780,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>184992</v>
+        <v>930600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G14" s="1">
-        <v>53136</v>
+        <v>143160</v>
+      </c>
+      <c r="H14" s="1">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1">
+        <v>18620</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -5531,22 +6809,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>222794</v>
+        <v>1120770</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="G15" s="1">
-        <v>59040</v>
+        <v>159000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1">
+        <v>22420</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -5554,22 +6838,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>314880</v>
+        <v>1584000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="G16" s="1">
-        <v>64944</v>
+        <v>174840</v>
+      </c>
+      <c r="H16" s="1">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1">
+        <v>31680</v>
       </c>
     </row>
   </sheetData>
@@ -5588,8 +6878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5619,15 +6909,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>528</v>
+        <v>3220</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -5642,7 +6936,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>480</v>
+        <v>2760</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -5650,7 +6950,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1392</v>
+        <v>8490</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -5665,7 +6965,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>960</v>
+        <v>4320</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -5673,7 +6979,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3648</v>
+        <v>22230</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -5688,7 +6994,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1920</v>
+        <v>7440</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -5696,7 +7008,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>6768</v>
+        <v>41250</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -5711,7 +7023,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>2880</v>
+        <v>10560</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1">
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -5719,7 +7037,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11136</v>
+        <v>67860</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5734,7 +7052,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>5760</v>
+        <v>19920</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1360</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -5742,10 +7066,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>16800</v>
+        <v>102380</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -5757,7 +7081,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>11520</v>
+        <v>38640</v>
+      </c>
+      <c r="H7" s="1">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2050</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -5765,10 +7095,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>31872</v>
+        <v>194220</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5780,7 +7110,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>17280</v>
+        <v>57360</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3890</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -5788,10 +7124,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>43904</v>
+        <v>267540</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -5803,7 +7139,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>23040</v>
+        <v>76080</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5360</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -5811,10 +7153,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>57856</v>
+        <v>352560</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -5826,7 +7168,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>28800</v>
+        <v>94800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7060</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -5834,13 +7182,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>74880</v>
+        <v>456300</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -5849,7 +7197,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>34560</v>
+        <v>113520</v>
+      </c>
+      <c r="H11" s="1">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9130</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -5857,13 +7211,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>94720</v>
+        <v>577200</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -5872,7 +7226,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>40320</v>
+        <v>132240</v>
+      </c>
+      <c r="H12" s="1">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1">
+        <v>11550</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -5880,13 +7240,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>146960</v>
+        <v>895540</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -5895,7 +7255,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>46080</v>
+        <v>150960</v>
+      </c>
+      <c r="H13" s="1">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1">
+        <v>17920</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -5903,13 +7269,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>180480</v>
+        <v>1099800</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -5918,7 +7284,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>51840</v>
+        <v>169680</v>
+      </c>
+      <c r="H14" s="1">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1">
+        <v>22000</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -5926,13 +7298,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>217360</v>
+        <v>1324540</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="D15" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -5941,7 +7313,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>57600</v>
+        <v>188400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1">
+        <v>26500</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -5949,13 +7327,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>307200</v>
+        <v>1872000</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -5964,7 +7342,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>63360</v>
+        <v>207120</v>
+      </c>
+      <c r="H16" s="1">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1">
+        <v>37440</v>
       </c>
     </row>
   </sheetData>
@@ -5984,7 +7368,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G16"/>
+      <selection activeCell="H2" sqref="H2:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6014,15 +7398,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>627</v>
+        <v>2730</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -6037,7 +7425,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>870</v>
+        <v>2520</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -6045,7 +7439,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1653</v>
+        <v>7180</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -6060,7 +7454,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1440</v>
+        <v>3840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -6068,7 +7468,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4332</v>
+        <v>18810</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -6083,7 +7483,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2580</v>
+        <v>6480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -6091,7 +7497,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8037</v>
+        <v>34900</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -6106,7 +7512,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3720</v>
+        <v>9121</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -6114,7 +7526,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13224</v>
+        <v>57420</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -6129,7 +7541,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7140</v>
+        <v>17041</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1150</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -6137,7 +7555,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>19950</v>
+        <v>86630</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -6146,13 +7564,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>13980</v>
+        <v>32881</v>
+      </c>
+      <c r="H7" s="1">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1740</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -6160,7 +7584,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>37848</v>
+        <v>164340</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -6169,13 +7593,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>20820</v>
+        <v>48721</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3290</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -6183,7 +7613,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>52136</v>
+        <v>226380</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -6192,13 +7622,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>27660</v>
+        <v>64561</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4530</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -6206,7 +7642,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>68704</v>
+        <v>298320</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -6215,13 +7651,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>34500</v>
+        <v>80400</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5970</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -6229,7 +7671,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>88920</v>
+        <v>386100</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -6238,13 +7680,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>41340</v>
+        <v>96241</v>
+      </c>
+      <c r="H11" s="1">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7730</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -6252,7 +7700,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>112480</v>
+        <v>488400</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -6261,13 +7709,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F12" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>48180</v>
+        <v>112081</v>
+      </c>
+      <c r="H12" s="1">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9770</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -6275,7 +7729,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>174515</v>
+        <v>757770</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -6284,13 +7738,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F13" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>55020</v>
+        <v>127921</v>
+      </c>
+      <c r="H13" s="1">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1">
+        <v>15160</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -6298,7 +7758,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>214320</v>
+        <v>930600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -6307,13 +7767,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F14" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>61860</v>
+        <v>143760</v>
+      </c>
+      <c r="H14" s="1">
+        <v>23</v>
+      </c>
+      <c r="I14" s="1">
+        <v>18620</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -6321,7 +7787,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>258115</v>
+        <v>1120770</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -6330,13 +7796,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F15" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>68700</v>
+        <v>159600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>25</v>
+      </c>
+      <c r="I15" s="1">
+        <v>22420</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -6344,7 +7816,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>364800</v>
+        <v>1584000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -6353,13 +7825,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F16" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>75540</v>
+        <v>175440</v>
+      </c>
+      <c r="H16" s="1">
+        <v>27</v>
+      </c>
+      <c r="I16" s="1">
+        <v>31680</v>
       </c>
     </row>
   </sheetData>
@@ -6409,15 +7887,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>555</v>
+        <v>2970</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -6426,13 +7908,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>504</v>
+        <v>3840</v>
+      </c>
+      <c r="H2" s="1">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -6440,7 +7928,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1462</v>
+        <v>7830</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -6449,13 +7937,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1008</v>
+        <v>5280</v>
+      </c>
+      <c r="H3" s="1">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -6463,7 +7957,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3831</v>
+        <v>20520</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -6472,13 +7966,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2016</v>
+        <v>8160</v>
+      </c>
+      <c r="H4" s="1">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1">
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -6486,7 +7986,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7107</v>
+        <v>38070</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -6495,13 +7995,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3024</v>
+        <v>11040</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1">
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -6509,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11693</v>
+        <v>62640</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -6518,13 +8024,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>6048</v>
+        <v>19680</v>
+      </c>
+      <c r="H6" s="1">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1260</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -6532,7 +8044,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>17640</v>
+        <v>94500</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -6541,13 +8053,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>12096</v>
+        <v>36960</v>
+      </c>
+      <c r="H7" s="1">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1890</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -6555,7 +8073,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>33466</v>
+        <v>179280</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -6564,13 +8082,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>18144</v>
+        <v>54240</v>
+      </c>
+      <c r="H8" s="1">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3590</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -6578,7 +8102,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>46100</v>
+        <v>246960</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -6587,13 +8111,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>24192</v>
+        <v>71520</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4940</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -6601,7 +8131,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>60749</v>
+        <v>325440</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -6610,13 +8140,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>30240</v>
+        <v>88800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6510</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -6624,7 +8160,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>78624</v>
+        <v>421200</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -6633,13 +8169,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>36288</v>
+        <v>106080</v>
+      </c>
+      <c r="H11" s="1">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8430</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -6647,7 +8189,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>99456</v>
+        <v>532800</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -6656,13 +8198,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>42336</v>
+        <v>123360</v>
+      </c>
+      <c r="H12" s="1">
+        <v>24</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10660</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -6670,7 +8218,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>154308</v>
+        <v>826650</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -6679,13 +8227,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="F13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>48384</v>
+        <v>140640</v>
+      </c>
+      <c r="H13" s="1">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1">
+        <v>16540</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -6693,7 +8247,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>189504</v>
+        <v>1015200</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -6702,13 +8256,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="F14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>54432</v>
+        <v>157920</v>
+      </c>
+      <c r="H14" s="1">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1">
+        <v>20310</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -6716,7 +8276,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>228228</v>
+        <v>1222650</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -6725,13 +8285,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="F15" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>60480</v>
+        <v>175200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1">
+        <v>24460</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -6739,7 +8305,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>322560</v>
+        <v>1728000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -6748,13 +8314,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>66528</v>
+        <v>192480</v>
+      </c>
+      <c r="H16" s="1">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1">
+        <v>34560</v>
       </c>
     </row>
   </sheetData>
@@ -6774,7 +8346,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="H2" sqref="H2:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6804,18 +8376,22 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>568</v>
+        <v>3100</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -6827,7 +8403,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>516</v>
+        <v>4700</v>
+      </c>
+      <c r="H2" s="1">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -6835,10 +8417,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1497</v>
+        <v>8160</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -6850,7 +8432,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1032</v>
+        <v>6200</v>
+      </c>
+      <c r="H3" s="1">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -6858,10 +8446,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3922</v>
+        <v>21380</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -6873,7 +8461,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2064</v>
+        <v>9200</v>
+      </c>
+      <c r="H4" s="1">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1">
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -6881,10 +8475,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7276</v>
+        <v>39660</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -6896,7 +8490,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3096</v>
+        <v>12200</v>
+      </c>
+      <c r="H5" s="1">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1">
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -6904,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11972</v>
+        <v>65250</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -6919,7 +8519,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>6192</v>
+        <v>21200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1310</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -6927,10 +8533,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>18060</v>
+        <v>98440</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -6942,7 +8548,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>12384</v>
+        <v>39200</v>
+      </c>
+      <c r="H7" s="1">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1970</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -6950,10 +8562,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>34263</v>
+        <v>186750</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -6965,7 +8577,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>18576</v>
+        <v>57200</v>
+      </c>
+      <c r="H8" s="1">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3740</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -6973,10 +8591,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>47197</v>
+        <v>257250</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -6988,7 +8606,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>24768</v>
+        <v>75200</v>
+      </c>
+      <c r="H9" s="1">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5150</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -6996,10 +8620,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>62196</v>
+        <v>339000</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -7011,7 +8635,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>30960</v>
+        <v>93200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6780</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -7019,13 +8649,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>80496</v>
+        <v>438750</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -7034,7 +8664,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>37152</v>
+        <v>111200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8780</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -7042,13 +8678,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>101824</v>
+        <v>555000</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -7057,7 +8693,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>43344</v>
+        <v>129200</v>
+      </c>
+      <c r="H12" s="1">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1">
+        <v>11100</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -7065,13 +8707,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>157982</v>
+        <v>861100</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="D13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -7080,7 +8722,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>49536</v>
+        <v>147200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1">
+        <v>17230</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -7088,13 +8736,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>194016</v>
+        <v>1057500</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="D14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -7103,7 +8751,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>55728</v>
+        <v>165200</v>
+      </c>
+      <c r="H14" s="1">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1">
+        <v>21150</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -7111,13 +8765,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>233662</v>
+        <v>1273600</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="D15" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -7126,7 +8780,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>61920</v>
+        <v>183200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>33</v>
+      </c>
+      <c r="I15" s="1">
+        <v>25480</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -7134,13 +8794,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>330240</v>
+        <v>1800000</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="D16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -7149,7 +8809,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>68112</v>
+        <v>201200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>35</v>
+      </c>
+      <c r="I16" s="1">
+        <v>36000</v>
       </c>
     </row>
   </sheetData>
@@ -7169,7 +8835,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7199,15 +8865,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>759</v>
+        <v>3720</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -7222,7 +8892,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1290</v>
+        <v>3400</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -7230,7 +8906,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2001</v>
+        <v>9790</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -7245,7 +8921,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1980</v>
+        <v>5200</v>
+      </c>
+      <c r="H3" s="1">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -7253,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5244</v>
+        <v>25650</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -7268,7 +8950,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3360</v>
+        <v>8800</v>
+      </c>
+      <c r="H4" s="1">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1">
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -7276,7 +8964,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9729</v>
+        <v>47590</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -7291,7 +8979,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4740</v>
+        <v>12400</v>
+      </c>
+      <c r="H5" s="1">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1">
+        <v>960</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -7299,7 +8993,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16008</v>
+        <v>78300</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -7308,13 +9002,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8880</v>
+        <v>23200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1570</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -7322,22 +9022,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>24150</v>
+        <v>118130</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>17160</v>
+        <v>44800</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2370</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -7345,22 +9051,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45816</v>
+        <v>224100</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>25440</v>
+        <v>66400</v>
+      </c>
+      <c r="H8" s="1">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4490</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -7368,22 +9080,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>63112</v>
+        <v>308700</v>
       </c>
       <c r="C9" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>33720</v>
+        <v>88000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6180</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -7391,22 +9109,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>83168</v>
+        <v>406800</v>
       </c>
       <c r="C10" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>42000</v>
+        <v>109600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8140</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -7414,22 +9138,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>107640</v>
+        <v>526500</v>
       </c>
       <c r="C11" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>50280</v>
+        <v>131200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10530</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -7437,22 +9167,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>136160</v>
+        <v>666000</v>
       </c>
       <c r="C12" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>58560</v>
+        <v>152800</v>
+      </c>
+      <c r="H12" s="1">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1">
+        <v>13320</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -7460,22 +9196,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>211255</v>
+        <v>1033320</v>
       </c>
       <c r="C13" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>66840</v>
+        <v>174400</v>
+      </c>
+      <c r="H13" s="1">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1">
+        <v>20670</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -7483,22 +9225,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>259440</v>
+        <v>1269000</v>
       </c>
       <c r="C14" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>75120</v>
+        <v>196000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1">
+        <v>25380</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -7506,22 +9254,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>312455</v>
+        <v>1528320</v>
       </c>
       <c r="C15" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>83400</v>
+        <v>217600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1">
+        <v>30570</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -7529,22 +9283,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>441600</v>
+        <v>2160000</v>
       </c>
       <c r="C16" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>91680</v>
+        <v>239200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>29</v>
+      </c>
+      <c r="I16" s="1">
+        <v>43200</v>
       </c>
     </row>
   </sheetData>
@@ -7564,7 +9324,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7594,15 +9354,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>693</v>
+      <c r="B2" s="4">
+        <v>2850</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -7617,15 +9381,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1430</v>
+        <v>3380</v>
+      </c>
+      <c r="H2" s="1">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1827</v>
+      <c r="B3" s="4">
+        <v>7510</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -7640,15 +9410,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2060</v>
+        <v>4760</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>4788</v>
+      <c r="B4" s="4">
+        <v>19670</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -7663,15 +9439,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3320</v>
+        <v>7520</v>
+      </c>
+      <c r="H4" s="1">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1">
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>8883</v>
+      <c r="B5" s="4">
+        <v>36490</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -7686,237 +9468,303 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4580</v>
+        <v>10280</v>
+      </c>
+      <c r="H5" s="1">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1">
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>14616</v>
+      <c r="B6" s="4">
+        <v>60030</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8360</v>
+        <v>18560</v>
+      </c>
+      <c r="H6" s="1">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1210</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>22050</v>
+      <c r="B7" s="4">
+        <v>90570</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>15920</v>
+        <v>35120</v>
+      </c>
+      <c r="H7" s="1">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1820</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>41832</v>
+      <c r="B8" s="4">
+        <v>171810</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>23480</v>
+        <v>51680</v>
+      </c>
+      <c r="H8" s="1">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3440</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>57624</v>
+      <c r="B9" s="4">
+        <v>236670</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>31040</v>
+        <v>68240</v>
+      </c>
+      <c r="H9" s="1">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4740</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>75936</v>
+      <c r="B10" s="4">
+        <v>311880</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E10" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>38600</v>
+        <v>84800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6240</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>98280</v>
+      <c r="B11" s="4">
+        <v>403650</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="E11" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>46160</v>
+        <v>101360</v>
+      </c>
+      <c r="H11" s="1">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8080</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>124320</v>
+      <c r="B12" s="4">
+        <v>510600</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E12" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>53720</v>
+        <v>117920</v>
+      </c>
+      <c r="H12" s="1">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10220</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>192885</v>
+      <c r="B13" s="4">
+        <v>792210</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="E13" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>61280</v>
+        <v>134480</v>
+      </c>
+      <c r="H13" s="1">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1">
+        <v>15850</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>236880</v>
+      <c r="B14" s="4">
+        <v>972900</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>68840</v>
+        <v>151040</v>
+      </c>
+      <c r="H14" s="1">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1">
+        <v>19460</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>285285</v>
+      <c r="B15" s="4">
+        <v>1171710</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="E15" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>76400</v>
+        <v>167600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>29</v>
+      </c>
+      <c r="I15" s="1">
+        <v>23440</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -7924,22 +9772,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>403200</v>
+        <v>1656000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="E16" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>83960</v>
+        <v>184160</v>
+      </c>
+      <c r="H16" s="1">
+        <v>31</v>
+      </c>
+      <c r="I16" s="1">
+        <v>33120</v>
       </c>
     </row>
   </sheetData>
@@ -7959,7 +9813,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7989,15 +9843,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>561</v>
+        <v>1490</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -8012,7 +9870,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>910</v>
+        <v>720</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -8020,7 +9884,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1479</v>
+        <v>3920</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -8035,7 +9899,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1420</v>
+        <v>1440</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -8043,7 +9913,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3876</v>
+        <v>10260</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -8058,7 +9928,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2440</v>
+        <v>2880</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -8066,7 +9942,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7191</v>
+        <v>19040</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -8081,7 +9957,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3460</v>
+        <v>4320</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -8089,7 +9971,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11832</v>
+        <v>31320</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -8104,7 +9986,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>6520</v>
+        <v>8640</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -8112,13 +10000,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>17850</v>
+        <v>47250</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -8127,7 +10015,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>12640</v>
+        <v>17280</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -8135,13 +10029,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>33864</v>
+        <v>89640</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -8150,7 +10044,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>18760</v>
+        <v>25920</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1800</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -8158,13 +10058,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>46648</v>
+        <v>123480</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -8173,7 +10073,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>24880</v>
+        <v>34560</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2470</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -8181,13 +10087,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>61472</v>
+        <v>162720</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -8196,7 +10102,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>31000</v>
+        <v>43200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3260</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -8204,13 +10116,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>79560</v>
+        <v>210600</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -8219,7 +10131,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>37120</v>
+        <v>51840</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4220</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -8227,13 +10145,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>100640</v>
+        <v>266400</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -8242,7 +10160,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>43240</v>
+        <v>60480</v>
+      </c>
+      <c r="H12" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5330</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -8250,13 +10174,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>156145</v>
+        <v>413330</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -8265,7 +10189,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>49360</v>
+        <v>69120</v>
+      </c>
+      <c r="H13" s="1">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8270</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -8273,13 +10203,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>191760</v>
+        <v>507600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -8288,7 +10218,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>55480</v>
+        <v>77760</v>
+      </c>
+      <c r="H14" s="1">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10160</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -8296,13 +10232,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>230945</v>
+        <v>611330</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -8311,7 +10247,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>61600</v>
+        <v>86400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1">
+        <v>12230</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -8319,13 +10261,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>326400</v>
+        <v>864000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -8334,7 +10276,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>67720</v>
+        <v>95040</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <v>17280</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/ProductionTechLevelUp.xlsx
+++ b/gameData/shared/ProductionTechLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="640" windowWidth="34180" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="1200" yWindow="680" windowWidth="34180" windowHeight="16060" tabRatio="883" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -141,10 +141,6 @@
   </si>
   <si>
     <t>INT_buildTime</t>
-  </si>
-  <si>
-    <t>INT_academyLevel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>INT_power</t>
@@ -230,7 +226,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +243,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB1A0C7"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -305,7 +307,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -672,8 +674,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,8 +693,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="366">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -872,6 +881,8 @@
     <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1048,6 +1059,8 @@
     <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1497,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1508,7 +1521,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1533,11 +1546,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1559,14 +1569,11 @@
       <c r="G2" s="1">
         <v>1200</v>
       </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="H2" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1588,14 +1595,11 @@
       <c r="G3" s="1">
         <v>2400</v>
       </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="5">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1617,14 +1621,11 @@
       <c r="G4" s="1">
         <v>4800</v>
       </c>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="5">
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1646,14 +1647,11 @@
       <c r="G5" s="1">
         <v>7200</v>
       </c>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="5">
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1675,14 +1673,11 @@
       <c r="G6" s="1">
         <v>14400</v>
       </c>
-      <c r="H6" s="1">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="5">
         <v>840</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1704,14 +1699,11 @@
       <c r="G7" s="1">
         <v>28800</v>
       </c>
-      <c r="H7" s="1">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="5">
         <v>1260</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1733,14 +1725,11 @@
       <c r="G8" s="1">
         <v>43200</v>
       </c>
-      <c r="H8" s="1">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="5">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1762,14 +1751,11 @@
       <c r="G9" s="1">
         <v>57600</v>
       </c>
-      <c r="H9" s="1">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="5">
         <v>3300</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1791,14 +1777,11 @@
       <c r="G10" s="1">
         <v>72000</v>
       </c>
-      <c r="H10" s="1">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="5">
         <v>4340</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1820,14 +1803,11 @@
       <c r="G11" s="1">
         <v>86400</v>
       </c>
-      <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" s="5">
         <v>5620</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1849,14 +1829,11 @@
       <c r="G12" s="1">
         <v>100800</v>
       </c>
-      <c r="H12" s="1">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H12" s="5">
         <v>7110</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1878,14 +1855,11 @@
       <c r="G13" s="1">
         <v>115200</v>
       </c>
-      <c r="H13" s="1">
-        <v>14</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H13" s="5">
         <v>11030</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1907,14 +1881,11 @@
       <c r="G14" s="1">
         <v>129600</v>
       </c>
-      <c r="H14" s="1">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="H14" s="5">
         <v>13540</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1936,14 +1907,11 @@
       <c r="G15" s="1">
         <v>144000</v>
       </c>
-      <c r="H15" s="1">
-        <v>18</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="H15" s="5">
         <v>16310</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1965,10 +1933,7 @@
       <c r="G16" s="1">
         <v>158400</v>
       </c>
-      <c r="H16" s="1">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="H16" s="5">
         <v>23040</v>
       </c>
     </row>
@@ -1986,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1997,7 +1962,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2022,11 +1987,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2049,13 +2011,10 @@
         <v>780</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2078,13 +2037,10 @@
         <v>1560</v>
       </c>
       <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2107,13 +2063,10 @@
         <v>3120</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2136,13 +2089,10 @@
         <v>4680</v>
       </c>
       <c r="H5" s="1">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2165,13 +2115,10 @@
         <v>9360</v>
       </c>
       <c r="H6" s="1">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1">
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2194,13 +2141,10 @@
         <v>18720</v>
       </c>
       <c r="H7" s="1">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1">
         <v>1030</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2223,13 +2167,10 @@
         <v>28080</v>
       </c>
       <c r="H8" s="1">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1">
         <v>1950</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2252,13 +2193,10 @@
         <v>37440</v>
       </c>
       <c r="H9" s="1">
-        <v>9</v>
-      </c>
-      <c r="I9" s="1">
         <v>2680</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2281,13 +2219,10 @@
         <v>46800</v>
       </c>
       <c r="H10" s="1">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1">
         <v>3530</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2310,13 +2245,10 @@
         <v>56160</v>
       </c>
       <c r="H11" s="1">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1">
         <v>4570</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2339,13 +2271,10 @@
         <v>65520</v>
       </c>
       <c r="H12" s="1">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1">
         <v>5780</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2368,13 +2297,10 @@
         <v>74880</v>
       </c>
       <c r="H13" s="1">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1">
         <v>8960</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2397,13 +2323,10 @@
         <v>84240</v>
       </c>
       <c r="H14" s="1">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1">
         <v>11000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2426,13 +2349,10 @@
         <v>93600</v>
       </c>
       <c r="H15" s="1">
-        <v>19</v>
-      </c>
-      <c r="I15" s="1">
         <v>13250</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2455,9 +2375,6 @@
         <v>102960</v>
       </c>
       <c r="H16" s="1">
-        <v>21</v>
-      </c>
-      <c r="I16" s="1">
         <v>18720</v>
       </c>
     </row>
@@ -2475,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2486,7 +2403,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2511,11 +2428,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2538,13 +2452,10 @@
         <v>840</v>
       </c>
       <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2567,13 +2478,10 @@
         <v>1680</v>
       </c>
       <c r="H3" s="1">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2596,13 +2504,10 @@
         <v>3360</v>
       </c>
       <c r="H4" s="1">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2625,13 +2530,10 @@
         <v>5040</v>
       </c>
       <c r="H5" s="1">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2654,13 +2556,10 @@
         <v>10080</v>
       </c>
       <c r="H6" s="1">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1">
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2683,13 +2582,10 @@
         <v>20160</v>
       </c>
       <c r="H7" s="1">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1">
         <v>1110</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2712,13 +2608,10 @@
         <v>30240</v>
       </c>
       <c r="H8" s="1">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1">
         <v>2100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2741,13 +2634,10 @@
         <v>40320</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
         <v>2890</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2770,13 +2660,10 @@
         <v>50400</v>
       </c>
       <c r="H10" s="1">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1">
         <v>3800</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2799,13 +2686,10 @@
         <v>60480</v>
       </c>
       <c r="H11" s="1">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1">
         <v>4920</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2828,13 +2712,10 @@
         <v>70560</v>
       </c>
       <c r="H12" s="1">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1">
         <v>6220</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2857,13 +2738,10 @@
         <v>80640</v>
       </c>
       <c r="H13" s="1">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1">
         <v>9650</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2886,13 +2764,10 @@
         <v>90720</v>
       </c>
       <c r="H14" s="1">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1">
         <v>11850</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2915,13 +2790,10 @@
         <v>100800</v>
       </c>
       <c r="H15" s="1">
-        <v>20</v>
-      </c>
-      <c r="I15" s="1">
         <v>14270</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2944,9 +2816,6 @@
         <v>110880</v>
       </c>
       <c r="H16" s="1">
-        <v>22</v>
-      </c>
-      <c r="I16" s="1">
         <v>20160</v>
       </c>
     </row>
@@ -2964,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2975,7 +2844,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3000,11 +2869,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3027,13 +2893,10 @@
         <v>660</v>
       </c>
       <c r="H2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3056,13 +2919,10 @@
         <v>1320</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3085,13 +2945,10 @@
         <v>2640</v>
       </c>
       <c r="H4" s="1">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3114,13 +2971,10 @@
         <v>3961</v>
       </c>
       <c r="H5" s="1">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3143,13 +2997,10 @@
         <v>7921</v>
       </c>
       <c r="H6" s="1">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1">
         <v>580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3172,13 +3023,10 @@
         <v>15841</v>
       </c>
       <c r="H7" s="1">
-        <v>9</v>
-      </c>
-      <c r="I7" s="1">
         <v>870</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3201,13 +3049,10 @@
         <v>23761</v>
       </c>
       <c r="H8" s="1">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1">
         <v>1650</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3230,13 +3075,10 @@
         <v>31681</v>
       </c>
       <c r="H9" s="1">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1">
         <v>2270</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3259,13 +3101,10 @@
         <v>39600</v>
       </c>
       <c r="H10" s="1">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1">
         <v>2990</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3288,13 +3127,10 @@
         <v>47521</v>
       </c>
       <c r="H11" s="1">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1">
         <v>3870</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3317,13 +3153,10 @@
         <v>55441</v>
       </c>
       <c r="H12" s="1">
-        <v>15</v>
-      </c>
-      <c r="I12" s="1">
         <v>4890</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3346,13 +3179,10 @@
         <v>63361</v>
       </c>
       <c r="H13" s="1">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1">
         <v>7580</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3375,13 +3205,10 @@
         <v>71280</v>
       </c>
       <c r="H14" s="1">
-        <v>19</v>
-      </c>
-      <c r="I14" s="1">
         <v>9310</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3404,13 +3231,10 @@
         <v>79200</v>
       </c>
       <c r="H15" s="1">
-        <v>21</v>
-      </c>
-      <c r="I15" s="1">
         <v>11210</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3433,9 +3257,6 @@
         <v>87120</v>
       </c>
       <c r="H16" s="1">
-        <v>23</v>
-      </c>
-      <c r="I16" s="1">
         <v>15840</v>
       </c>
     </row>
@@ -3453,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3464,7 +3285,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3489,11 +3310,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3516,13 +3334,10 @@
         <v>1880</v>
       </c>
       <c r="H2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3545,13 +3360,10 @@
         <v>2960</v>
       </c>
       <c r="H3" s="1">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3574,13 +3386,10 @@
         <v>5120</v>
       </c>
       <c r="H4" s="1">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3603,13 +3412,10 @@
         <v>7280</v>
       </c>
       <c r="H5" s="1">
-        <v>8</v>
-      </c>
-      <c r="I5" s="1">
         <v>580</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3632,13 +3438,10 @@
         <v>13760</v>
       </c>
       <c r="H6" s="1">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1">
         <v>940</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3661,13 +3464,10 @@
         <v>26720</v>
       </c>
       <c r="H7" s="1">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1">
         <v>1420</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3690,13 +3490,10 @@
         <v>39680</v>
       </c>
       <c r="H8" s="1">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1">
         <v>2690</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3719,13 +3516,10 @@
         <v>52640</v>
       </c>
       <c r="H9" s="1">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1">
         <v>3710</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3748,13 +3542,10 @@
         <v>65600</v>
       </c>
       <c r="H10" s="1">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1">
         <v>4890</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3777,13 +3568,10 @@
         <v>78560</v>
       </c>
       <c r="H11" s="1">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1">
         <v>6320</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3806,13 +3594,10 @@
         <v>91520</v>
       </c>
       <c r="H12" s="1">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1">
         <v>8000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3835,13 +3620,10 @@
         <v>104480</v>
       </c>
       <c r="H13" s="1">
-        <v>18</v>
-      </c>
-      <c r="I13" s="1">
         <v>12400</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3864,13 +3646,10 @@
         <v>117440</v>
       </c>
       <c r="H14" s="1">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1">
         <v>15230</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3893,13 +3672,10 @@
         <v>130400</v>
       </c>
       <c r="H15" s="1">
-        <v>22</v>
-      </c>
-      <c r="I15" s="1">
         <v>18340</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3922,9 +3698,6 @@
         <v>143360</v>
       </c>
       <c r="H16" s="1">
-        <v>24</v>
-      </c>
-      <c r="I16" s="1">
         <v>25920</v>
       </c>
     </row>
@@ -3942,10 +3715,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3953,7 +3726,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3978,11 +3751,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4005,13 +3775,10 @@
         <v>2860</v>
       </c>
       <c r="H2" s="1">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4034,13 +3801,10 @@
         <v>4120</v>
       </c>
       <c r="H3" s="1">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4063,13 +3827,10 @@
         <v>6640</v>
       </c>
       <c r="H4" s="1">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4092,13 +3853,10 @@
         <v>9160</v>
       </c>
       <c r="H5" s="1">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1">
         <v>670</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4121,13 +3879,10 @@
         <v>16720</v>
       </c>
       <c r="H6" s="1">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4150,13 +3905,10 @@
         <v>31840</v>
       </c>
       <c r="H7" s="1">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1">
         <v>1660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4179,13 +3931,10 @@
         <v>46960</v>
       </c>
       <c r="H8" s="1">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1">
         <v>3140</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4208,13 +3957,10 @@
         <v>62080</v>
       </c>
       <c r="H9" s="1">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1">
         <v>4330</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4237,13 +3983,10 @@
         <v>77200</v>
       </c>
       <c r="H10" s="1">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1">
         <v>5700</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4266,13 +4009,10 @@
         <v>92320</v>
       </c>
       <c r="H11" s="1">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1">
         <v>7380</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4295,13 +4035,10 @@
         <v>107440</v>
       </c>
       <c r="H12" s="1">
-        <v>18</v>
-      </c>
-      <c r="I12" s="1">
         <v>9330</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4324,13 +4061,10 @@
         <v>122560</v>
       </c>
       <c r="H13" s="1">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1">
         <v>14470</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4353,13 +4087,10 @@
         <v>137680</v>
       </c>
       <c r="H14" s="1">
-        <v>22</v>
-      </c>
-      <c r="I14" s="1">
         <v>17770</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4382,13 +4113,10 @@
         <v>152800</v>
       </c>
       <c r="H15" s="1">
-        <v>24</v>
-      </c>
-      <c r="I15" s="1">
         <v>21400</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4411,9 +4139,6 @@
         <v>167920</v>
       </c>
       <c r="H16" s="1">
-        <v>26</v>
-      </c>
-      <c r="I16" s="1">
         <v>30240</v>
       </c>
     </row>
@@ -4431,10 +4156,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4442,7 +4167,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4467,11 +4192,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4494,13 +4216,10 @@
         <v>2800</v>
       </c>
       <c r="H2" s="1">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4523,13 +4242,10 @@
         <v>4000</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4552,13 +4268,10 @@
         <v>6400</v>
       </c>
       <c r="H4" s="1">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4581,13 +4294,10 @@
         <v>8800</v>
       </c>
       <c r="H5" s="1">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1">
         <v>640</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4610,13 +4320,10 @@
         <v>16000</v>
       </c>
       <c r="H6" s="1">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1">
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4639,13 +4346,10 @@
         <v>30400</v>
       </c>
       <c r="H7" s="1">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1">
         <v>1580</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4668,13 +4372,10 @@
         <v>44800</v>
       </c>
       <c r="H8" s="1">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1">
         <v>2990</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4697,13 +4398,10 @@
         <v>59200</v>
       </c>
       <c r="H9" s="1">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1">
         <v>4120</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4726,13 +4424,10 @@
         <v>73600</v>
       </c>
       <c r="H10" s="1">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1">
         <v>5430</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4755,13 +4450,10 @@
         <v>88000</v>
       </c>
       <c r="H11" s="1">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1">
         <v>7020</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4784,13 +4476,10 @@
         <v>102400</v>
       </c>
       <c r="H12" s="1">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1">
         <v>8880</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4813,13 +4502,10 @@
         <v>116800</v>
       </c>
       <c r="H13" s="1">
-        <v>22</v>
-      </c>
-      <c r="I13" s="1">
         <v>13780</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4842,13 +4528,10 @@
         <v>131200</v>
       </c>
       <c r="H14" s="1">
-        <v>24</v>
-      </c>
-      <c r="I14" s="1">
         <v>16920</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4871,13 +4554,10 @@
         <v>145600</v>
       </c>
       <c r="H15" s="1">
-        <v>26</v>
-      </c>
-      <c r="I15" s="1">
         <v>20380</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4900,9 +4580,6 @@
         <v>160000</v>
       </c>
       <c r="H16" s="1">
-        <v>28</v>
-      </c>
-      <c r="I16" s="1">
         <v>28800</v>
       </c>
     </row>
@@ -4920,10 +4597,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4931,7 +4608,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4956,11 +4633,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4983,13 +4657,10 @@
         <v>3660</v>
       </c>
       <c r="H2" s="1">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5012,13 +4683,10 @@
         <v>4920</v>
       </c>
       <c r="H3" s="1">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5041,13 +4709,10 @@
         <v>7440</v>
       </c>
       <c r="H4" s="1">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5070,13 +4735,10 @@
         <v>9960</v>
       </c>
       <c r="H5" s="1">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1">
         <v>670</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5099,13 +4761,10 @@
         <v>17520</v>
       </c>
       <c r="H6" s="1">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5128,13 +4787,10 @@
         <v>32640</v>
       </c>
       <c r="H7" s="1">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1">
         <v>1660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5157,13 +4813,10 @@
         <v>47760</v>
       </c>
       <c r="H8" s="1">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1">
         <v>3140</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5186,13 +4839,10 @@
         <v>62880</v>
       </c>
       <c r="H9" s="1">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1">
         <v>4330</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5215,13 +4865,10 @@
         <v>78000</v>
       </c>
       <c r="H10" s="1">
-        <v>19</v>
-      </c>
-      <c r="I10" s="1">
         <v>5700</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5244,13 +4891,10 @@
         <v>93120</v>
       </c>
       <c r="H11" s="1">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1">
         <v>7380</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5273,13 +4917,10 @@
         <v>108240</v>
       </c>
       <c r="H12" s="1">
-        <v>22</v>
-      </c>
-      <c r="I12" s="1">
         <v>9330</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5302,13 +4943,10 @@
         <v>123360</v>
       </c>
       <c r="H13" s="1">
-        <v>24</v>
-      </c>
-      <c r="I13" s="1">
         <v>14470</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5331,13 +4969,10 @@
         <v>138480</v>
       </c>
       <c r="H14" s="1">
-        <v>26</v>
-      </c>
-      <c r="I14" s="1">
         <v>17770</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5360,13 +4995,10 @@
         <v>153600</v>
       </c>
       <c r="H15" s="1">
-        <v>28</v>
-      </c>
-      <c r="I15" s="1">
         <v>21400</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5389,9 +5021,6 @@
         <v>168720</v>
       </c>
       <c r="H16" s="1">
-        <v>30</v>
-      </c>
-      <c r="I16" s="1">
         <v>30240</v>
       </c>
     </row>
@@ -5409,10 +5038,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5420,7 +5049,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5445,11 +5074,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5472,13 +5098,10 @@
         <v>3420</v>
       </c>
       <c r="H2" s="1">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5501,13 +5124,10 @@
         <v>4440</v>
       </c>
       <c r="H3" s="1">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5530,13 +5150,10 @@
         <v>6480</v>
       </c>
       <c r="H4" s="1">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5559,13 +5176,10 @@
         <v>8520</v>
       </c>
       <c r="H5" s="1">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1">
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5588,13 +5202,10 @@
         <v>14640</v>
       </c>
       <c r="H6" s="1">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1">
         <v>890</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5617,13 +5228,10 @@
         <v>26880</v>
       </c>
       <c r="H7" s="1">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1">
         <v>1340</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5646,13 +5254,10 @@
         <v>39120</v>
       </c>
       <c r="H8" s="1">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1">
         <v>2540</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5675,13 +5280,10 @@
         <v>51360</v>
       </c>
       <c r="H9" s="1">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1">
         <v>3500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5704,13 +5306,10 @@
         <v>63600</v>
       </c>
       <c r="H10" s="1">
-        <v>22</v>
-      </c>
-      <c r="I10" s="1">
         <v>4620</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5733,13 +5332,10 @@
         <v>75840</v>
       </c>
       <c r="H11" s="1">
-        <v>23</v>
-      </c>
-      <c r="I11" s="1">
         <v>5970</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5762,13 +5358,10 @@
         <v>88080</v>
       </c>
       <c r="H12" s="1">
-        <v>25</v>
-      </c>
-      <c r="I12" s="1">
         <v>7550</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5791,13 +5384,10 @@
         <v>100320</v>
       </c>
       <c r="H13" s="1">
-        <v>27</v>
-      </c>
-      <c r="I13" s="1">
         <v>11720</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5820,13 +5410,10 @@
         <v>112560</v>
       </c>
       <c r="H14" s="1">
-        <v>29</v>
-      </c>
-      <c r="I14" s="1">
         <v>14390</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5849,13 +5436,10 @@
         <v>124800</v>
       </c>
       <c r="H15" s="1">
-        <v>31</v>
-      </c>
-      <c r="I15" s="1">
         <v>17330</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5878,9 +5462,6 @@
         <v>137040</v>
       </c>
       <c r="H16" s="1">
-        <v>33</v>
-      </c>
-      <c r="I16" s="1">
         <v>24480</v>
       </c>
     </row>
@@ -5898,10 +5479,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5909,7 +5490,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5934,11 +5515,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5961,13 +5539,10 @@
         <v>5920</v>
       </c>
       <c r="H2" s="1">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5990,13 +5565,10 @@
         <v>7840</v>
       </c>
       <c r="H3" s="1">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6019,13 +5591,10 @@
         <v>11680</v>
       </c>
       <c r="H4" s="1">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6048,13 +5617,10 @@
         <v>15520</v>
       </c>
       <c r="H5" s="1">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1">
         <v>1020</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6077,13 +5643,10 @@
         <v>27040</v>
       </c>
       <c r="H6" s="1">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1">
         <v>1680</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6106,13 +5669,10 @@
         <v>50080</v>
       </c>
       <c r="H7" s="1">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1">
         <v>2520</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6135,13 +5695,10 @@
         <v>73120</v>
       </c>
       <c r="H8" s="1">
-        <v>21</v>
-      </c>
-      <c r="I8" s="1">
         <v>4790</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6164,13 +5721,10 @@
         <v>96160</v>
       </c>
       <c r="H9" s="1">
-        <v>22</v>
-      </c>
-      <c r="I9" s="1">
         <v>6590</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6193,13 +5747,10 @@
         <v>119200</v>
       </c>
       <c r="H10" s="1">
-        <v>23</v>
-      </c>
-      <c r="I10" s="1">
         <v>8680</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6222,13 +5773,10 @@
         <v>142240</v>
       </c>
       <c r="H11" s="1">
-        <v>24</v>
-      </c>
-      <c r="I11" s="1">
         <v>11240</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6251,13 +5799,10 @@
         <v>165280</v>
       </c>
       <c r="H12" s="1">
-        <v>26</v>
-      </c>
-      <c r="I12" s="1">
         <v>14210</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6280,13 +5825,10 @@
         <v>188320</v>
       </c>
       <c r="H13" s="1">
-        <v>28</v>
-      </c>
-      <c r="I13" s="1">
         <v>22050</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6309,13 +5851,10 @@
         <v>211360</v>
       </c>
       <c r="H14" s="1">
-        <v>30</v>
-      </c>
-      <c r="I14" s="1">
         <v>27080</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6338,13 +5877,10 @@
         <v>234400</v>
       </c>
       <c r="H15" s="1">
-        <v>32</v>
-      </c>
-      <c r="I15" s="1">
         <v>32610</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6367,9 +5903,6 @@
         <v>257440</v>
       </c>
       <c r="H16" s="1">
-        <v>34</v>
-      </c>
-      <c r="I16" s="1">
         <v>46080</v>
       </c>
     </row>
@@ -6387,10 +5920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6398,7 +5931,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6423,11 +5956,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6450,13 +5980,10 @@
         <v>1920</v>
       </c>
       <c r="H2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6479,13 +6006,10 @@
         <v>3240</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6508,13 +6032,10 @@
         <v>5880</v>
       </c>
       <c r="H4" s="1">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6537,13 +6058,10 @@
         <v>8521</v>
       </c>
       <c r="H5" s="1">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6566,13 +6084,10 @@
         <v>16441</v>
       </c>
       <c r="H6" s="1">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1">
         <v>1150</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6595,13 +6110,10 @@
         <v>32281</v>
       </c>
       <c r="H7" s="1">
-        <v>9</v>
-      </c>
-      <c r="I7" s="1">
         <v>1740</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6624,13 +6136,10 @@
         <v>48121</v>
       </c>
       <c r="H8" s="1">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1">
         <v>3290</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6653,13 +6162,10 @@
         <v>63961</v>
       </c>
       <c r="H9" s="1">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1">
         <v>4530</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6682,13 +6188,10 @@
         <v>79800</v>
       </c>
       <c r="H10" s="1">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1">
         <v>5970</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6711,13 +6214,10 @@
         <v>95641</v>
       </c>
       <c r="H11" s="1">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1">
         <v>7730</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6740,13 +6240,10 @@
         <v>111481</v>
       </c>
       <c r="H12" s="1">
-        <v>15</v>
-      </c>
-      <c r="I12" s="1">
         <v>9770</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6769,13 +6266,10 @@
         <v>127321</v>
       </c>
       <c r="H13" s="1">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1">
         <v>15160</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6798,13 +6292,10 @@
         <v>143160</v>
       </c>
       <c r="H14" s="1">
-        <v>19</v>
-      </c>
-      <c r="I14" s="1">
         <v>18620</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6827,13 +6318,10 @@
         <v>159000</v>
       </c>
       <c r="H15" s="1">
-        <v>21</v>
-      </c>
-      <c r="I15" s="1">
         <v>22420</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6856,9 +6344,6 @@
         <v>174840</v>
       </c>
       <c r="H16" s="1">
-        <v>23</v>
-      </c>
-      <c r="I16" s="1">
         <v>31680</v>
       </c>
     </row>
@@ -6876,10 +6361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6887,7 +6372,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6912,11 +6397,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6939,13 +6421,10 @@
         <v>2760</v>
       </c>
       <c r="H2" s="1">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6968,13 +6447,10 @@
         <v>4320</v>
       </c>
       <c r="H3" s="1">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6997,13 +6473,10 @@
         <v>7440</v>
       </c>
       <c r="H4" s="1">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7026,13 +6499,10 @@
         <v>10560</v>
       </c>
       <c r="H5" s="1">
-        <v>9</v>
-      </c>
-      <c r="I5" s="1">
         <v>830</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7055,13 +6525,10 @@
         <v>19920</v>
       </c>
       <c r="H6" s="1">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
         <v>1360</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7084,13 +6551,10 @@
         <v>38640</v>
       </c>
       <c r="H7" s="1">
-        <v>11</v>
-      </c>
-      <c r="I7" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7113,13 +6577,10 @@
         <v>57360</v>
       </c>
       <c r="H8" s="1">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1">
         <v>3890</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7142,13 +6603,10 @@
         <v>76080</v>
       </c>
       <c r="H9" s="1">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1">
         <v>5360</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7171,13 +6629,10 @@
         <v>94800</v>
       </c>
       <c r="H10" s="1">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1">
         <v>7060</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7200,13 +6655,10 @@
         <v>113520</v>
       </c>
       <c r="H11" s="1">
-        <v>15</v>
-      </c>
-      <c r="I11" s="1">
         <v>9130</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7229,13 +6681,10 @@
         <v>132240</v>
       </c>
       <c r="H12" s="1">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1">
         <v>11550</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7258,13 +6707,10 @@
         <v>150960</v>
       </c>
       <c r="H13" s="1">
-        <v>19</v>
-      </c>
-      <c r="I13" s="1">
         <v>17920</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7287,13 +6733,10 @@
         <v>169680</v>
       </c>
       <c r="H14" s="1">
-        <v>21</v>
-      </c>
-      <c r="I14" s="1">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7316,13 +6759,10 @@
         <v>188400</v>
       </c>
       <c r="H15" s="1">
-        <v>23</v>
-      </c>
-      <c r="I15" s="1">
         <v>26500</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7345,9 +6785,6 @@
         <v>207120</v>
       </c>
       <c r="H16" s="1">
-        <v>25</v>
-      </c>
-      <c r="I16" s="1">
         <v>37440</v>
       </c>
     </row>
@@ -7365,10 +6802,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7376,7 +6813,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7401,11 +6838,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7428,13 +6862,10 @@
         <v>2520</v>
       </c>
       <c r="H2" s="1">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7457,13 +6888,10 @@
         <v>3840</v>
       </c>
       <c r="H3" s="1">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7486,13 +6914,10 @@
         <v>6480</v>
       </c>
       <c r="H4" s="1">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7515,13 +6940,10 @@
         <v>9121</v>
       </c>
       <c r="H5" s="1">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7544,13 +6966,10 @@
         <v>17041</v>
       </c>
       <c r="H6" s="1">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1">
         <v>1150</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7573,13 +6992,10 @@
         <v>32881</v>
       </c>
       <c r="H7" s="1">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1">
         <v>1740</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7602,13 +7018,10 @@
         <v>48721</v>
       </c>
       <c r="H8" s="1">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1">
         <v>3290</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7631,13 +7044,10 @@
         <v>64561</v>
       </c>
       <c r="H9" s="1">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1">
         <v>4530</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7660,13 +7070,10 @@
         <v>80400</v>
       </c>
       <c r="H10" s="1">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1">
         <v>5970</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7689,13 +7096,10 @@
         <v>96241</v>
       </c>
       <c r="H11" s="1">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1">
         <v>7730</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7718,13 +7122,10 @@
         <v>112081</v>
       </c>
       <c r="H12" s="1">
-        <v>19</v>
-      </c>
-      <c r="I12" s="1">
         <v>9770</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7747,13 +7148,10 @@
         <v>127921</v>
       </c>
       <c r="H13" s="1">
-        <v>21</v>
-      </c>
-      <c r="I13" s="1">
         <v>15160</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7776,13 +7174,10 @@
         <v>143760</v>
       </c>
       <c r="H14" s="1">
-        <v>23</v>
-      </c>
-      <c r="I14" s="1">
         <v>18620</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7805,13 +7200,10 @@
         <v>159600</v>
       </c>
       <c r="H15" s="1">
-        <v>25</v>
-      </c>
-      <c r="I15" s="1">
         <v>22420</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7834,9 +7226,6 @@
         <v>175440</v>
       </c>
       <c r="H16" s="1">
-        <v>27</v>
-      </c>
-      <c r="I16" s="1">
         <v>31680</v>
       </c>
     </row>
@@ -7854,10 +7243,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7865,7 +7254,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7890,11 +7279,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7917,13 +7303,10 @@
         <v>3840</v>
       </c>
       <c r="H2" s="1">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7946,13 +7329,10 @@
         <v>5280</v>
       </c>
       <c r="H3" s="1">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7975,13 +7355,10 @@
         <v>8160</v>
       </c>
       <c r="H4" s="1">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1">
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8004,13 +7381,10 @@
         <v>11040</v>
       </c>
       <c r="H5" s="1">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1">
         <v>770</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8033,13 +7407,10 @@
         <v>19680</v>
       </c>
       <c r="H6" s="1">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1">
         <v>1260</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8062,13 +7433,10 @@
         <v>36960</v>
       </c>
       <c r="H7" s="1">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1">
         <v>1890</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8091,13 +7459,10 @@
         <v>54240</v>
       </c>
       <c r="H8" s="1">
-        <v>19</v>
-      </c>
-      <c r="I8" s="1">
         <v>3590</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8120,13 +7485,10 @@
         <v>71520</v>
       </c>
       <c r="H9" s="1">
-        <v>20</v>
-      </c>
-      <c r="I9" s="1">
         <v>4940</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8149,13 +7511,10 @@
         <v>88800</v>
       </c>
       <c r="H10" s="1">
-        <v>21</v>
-      </c>
-      <c r="I10" s="1">
         <v>6510</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8178,13 +7537,10 @@
         <v>106080</v>
       </c>
       <c r="H11" s="1">
-        <v>22</v>
-      </c>
-      <c r="I11" s="1">
         <v>8430</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8207,13 +7563,10 @@
         <v>123360</v>
       </c>
       <c r="H12" s="1">
-        <v>24</v>
-      </c>
-      <c r="I12" s="1">
         <v>10660</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8236,13 +7589,10 @@
         <v>140640</v>
       </c>
       <c r="H13" s="1">
-        <v>26</v>
-      </c>
-      <c r="I13" s="1">
         <v>16540</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8265,13 +7615,10 @@
         <v>157920</v>
       </c>
       <c r="H14" s="1">
-        <v>28</v>
-      </c>
-      <c r="I14" s="1">
         <v>20310</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8294,13 +7641,10 @@
         <v>175200</v>
       </c>
       <c r="H15" s="1">
-        <v>30</v>
-      </c>
-      <c r="I15" s="1">
         <v>24460</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8323,9 +7667,6 @@
         <v>192480</v>
       </c>
       <c r="H16" s="1">
-        <v>32</v>
-      </c>
-      <c r="I16" s="1">
         <v>34560</v>
       </c>
     </row>
@@ -8343,10 +7684,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8354,7 +7695,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8379,11 +7720,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8406,13 +7744,10 @@
         <v>4700</v>
       </c>
       <c r="H2" s="1">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8435,13 +7770,10 @@
         <v>6200</v>
       </c>
       <c r="H3" s="1">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8464,13 +7796,10 @@
         <v>9200</v>
       </c>
       <c r="H4" s="1">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1">
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8493,13 +7822,10 @@
         <v>12200</v>
       </c>
       <c r="H5" s="1">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8522,13 +7848,10 @@
         <v>21200</v>
       </c>
       <c r="H6" s="1">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1">
         <v>1310</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8551,13 +7874,10 @@
         <v>39200</v>
       </c>
       <c r="H7" s="1">
-        <v>21</v>
-      </c>
-      <c r="I7" s="1">
         <v>1970</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8580,13 +7900,10 @@
         <v>57200</v>
       </c>
       <c r="H8" s="1">
-        <v>22</v>
-      </c>
-      <c r="I8" s="1">
         <v>3740</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8609,13 +7926,10 @@
         <v>75200</v>
       </c>
       <c r="H9" s="1">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1">
         <v>5150</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8638,13 +7952,10 @@
         <v>93200</v>
       </c>
       <c r="H10" s="1">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1">
         <v>6780</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8667,13 +7978,10 @@
         <v>111200</v>
       </c>
       <c r="H11" s="1">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1">
         <v>8780</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8696,13 +8004,10 @@
         <v>129200</v>
       </c>
       <c r="H12" s="1">
-        <v>27</v>
-      </c>
-      <c r="I12" s="1">
         <v>11100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8725,13 +8030,10 @@
         <v>147200</v>
       </c>
       <c r="H13" s="1">
-        <v>29</v>
-      </c>
-      <c r="I13" s="1">
         <v>17230</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8754,13 +8056,10 @@
         <v>165200</v>
       </c>
       <c r="H14" s="1">
-        <v>31</v>
-      </c>
-      <c r="I14" s="1">
         <v>21150</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8783,13 +8082,10 @@
         <v>183200</v>
       </c>
       <c r="H15" s="1">
-        <v>33</v>
-      </c>
-      <c r="I15" s="1">
         <v>25480</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8812,9 +8108,6 @@
         <v>201200</v>
       </c>
       <c r="H16" s="1">
-        <v>35</v>
-      </c>
-      <c r="I16" s="1">
         <v>36000</v>
       </c>
     </row>
@@ -8832,10 +8125,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8843,7 +8136,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8868,11 +8161,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8895,13 +8185,10 @@
         <v>3400</v>
       </c>
       <c r="H2" s="1">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8924,13 +8211,10 @@
         <v>5200</v>
       </c>
       <c r="H3" s="1">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8953,13 +8237,10 @@
         <v>8800</v>
       </c>
       <c r="H4" s="1">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8982,13 +8263,10 @@
         <v>12400</v>
       </c>
       <c r="H5" s="1">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1">
         <v>960</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9011,13 +8289,10 @@
         <v>23200</v>
       </c>
       <c r="H6" s="1">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1">
         <v>1570</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9040,13 +8315,10 @@
         <v>44800</v>
       </c>
       <c r="H7" s="1">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1">
         <v>2370</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9069,13 +8341,10 @@
         <v>66400</v>
       </c>
       <c r="H8" s="1">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1">
         <v>4490</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9098,13 +8367,10 @@
         <v>88000</v>
       </c>
       <c r="H9" s="1">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1">
         <v>6180</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9127,13 +8393,10 @@
         <v>109600</v>
       </c>
       <c r="H10" s="1">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1">
         <v>8140</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9156,13 +8419,10 @@
         <v>131200</v>
       </c>
       <c r="H11" s="1">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1">
         <v>10530</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9185,13 +8445,10 @@
         <v>152800</v>
       </c>
       <c r="H12" s="1">
-        <v>21</v>
-      </c>
-      <c r="I12" s="1">
         <v>13320</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9214,13 +8471,10 @@
         <v>174400</v>
       </c>
       <c r="H13" s="1">
-        <v>23</v>
-      </c>
-      <c r="I13" s="1">
         <v>20670</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9243,13 +8497,10 @@
         <v>196000</v>
       </c>
       <c r="H14" s="1">
-        <v>25</v>
-      </c>
-      <c r="I14" s="1">
         <v>25380</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9272,13 +8523,10 @@
         <v>217600</v>
       </c>
       <c r="H15" s="1">
-        <v>27</v>
-      </c>
-      <c r="I15" s="1">
         <v>30570</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9301,9 +8549,6 @@
         <v>239200</v>
       </c>
       <c r="H16" s="1">
-        <v>29</v>
-      </c>
-      <c r="I16" s="1">
         <v>43200</v>
       </c>
     </row>
@@ -9321,10 +8566,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9332,7 +8577,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9357,11 +8602,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9384,13 +8626,10 @@
         <v>3380</v>
       </c>
       <c r="H2" s="1">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9413,13 +8652,10 @@
         <v>4760</v>
       </c>
       <c r="H3" s="1">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9442,13 +8678,10 @@
         <v>7520</v>
       </c>
       <c r="H4" s="1">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9471,13 +8704,10 @@
         <v>10280</v>
       </c>
       <c r="H5" s="1">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1">
         <v>730</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9500,13 +8730,10 @@
         <v>18560</v>
       </c>
       <c r="H6" s="1">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1">
         <v>1210</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9529,13 +8756,10 @@
         <v>35120</v>
       </c>
       <c r="H7" s="1">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1">
         <v>1820</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9558,13 +8782,10 @@
         <v>51680</v>
       </c>
       <c r="H8" s="1">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1">
         <v>3440</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9587,13 +8808,10 @@
         <v>68240</v>
       </c>
       <c r="H9" s="1">
-        <v>19</v>
-      </c>
-      <c r="I9" s="1">
         <v>4740</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9616,13 +8834,10 @@
         <v>84800</v>
       </c>
       <c r="H10" s="1">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1">
         <v>6240</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9645,13 +8860,10 @@
         <v>101360</v>
       </c>
       <c r="H11" s="1">
-        <v>21</v>
-      </c>
-      <c r="I11" s="1">
         <v>8080</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9674,13 +8886,10 @@
         <v>117920</v>
       </c>
       <c r="H12" s="1">
-        <v>23</v>
-      </c>
-      <c r="I12" s="1">
         <v>10220</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9703,13 +8912,10 @@
         <v>134480</v>
       </c>
       <c r="H13" s="1">
-        <v>25</v>
-      </c>
-      <c r="I13" s="1">
         <v>15850</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9732,13 +8938,10 @@
         <v>151040</v>
       </c>
       <c r="H14" s="1">
-        <v>27</v>
-      </c>
-      <c r="I14" s="1">
         <v>19460</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9761,13 +8964,10 @@
         <v>167600</v>
       </c>
       <c r="H15" s="1">
-        <v>29</v>
-      </c>
-      <c r="I15" s="1">
         <v>23440</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9790,9 +8990,6 @@
         <v>184160</v>
       </c>
       <c r="H16" s="1">
-        <v>31</v>
-      </c>
-      <c r="I16" s="1">
         <v>33120</v>
       </c>
     </row>
@@ -9810,10 +9007,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9821,7 +9018,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9846,11 +9043,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9873,13 +9067,10 @@
         <v>720</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9902,13 +9093,10 @@
         <v>1440</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9931,13 +9119,10 @@
         <v>2880</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9960,13 +9145,10 @@
         <v>4320</v>
       </c>
       <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9989,13 +9171,10 @@
         <v>8640</v>
       </c>
       <c r="H6" s="1">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1">
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10018,13 +9197,10 @@
         <v>17280</v>
       </c>
       <c r="H7" s="1">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1">
         <v>950</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10047,13 +9223,10 @@
         <v>25920</v>
       </c>
       <c r="H8" s="1">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10076,13 +9249,10 @@
         <v>34560</v>
       </c>
       <c r="H9" s="1">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1">
         <v>2470</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10105,13 +9275,10 @@
         <v>43200</v>
       </c>
       <c r="H10" s="1">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1">
         <v>3260</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10134,13 +9301,10 @@
         <v>51840</v>
       </c>
       <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1">
         <v>4220</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10163,13 +9327,10 @@
         <v>60480</v>
       </c>
       <c r="H12" s="1">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1">
         <v>5330</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10192,13 +9353,10 @@
         <v>69120</v>
       </c>
       <c r="H13" s="1">
-        <v>14</v>
-      </c>
-      <c r="I13" s="1">
         <v>8270</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10221,13 +9379,10 @@
         <v>77760</v>
       </c>
       <c r="H14" s="1">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1">
         <v>10160</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10250,13 +9405,10 @@
         <v>86400</v>
       </c>
       <c r="H15" s="1">
-        <v>18</v>
-      </c>
-      <c r="I15" s="1">
         <v>12230</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10279,9 +9431,6 @@
         <v>95040</v>
       </c>
       <c r="H16" s="1">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1">
         <v>17280</v>
       </c>
     </row>

--- a/gameData/shared/ProductionTechLevelUp.xlsx
+++ b/gameData/shared/ProductionTechLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24380" yWindow="0" windowWidth="24840" windowHeight="13000" tabRatio="928" firstSheet="4" activeTab="17"/>
+    <workbookView xWindow="500" yWindow="0" windowWidth="30260" windowHeight="20880" tabRatio="928" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
@@ -307,7 +307,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="684">
+  <cellStyleXfs count="722">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -322,6 +322,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1015,7 +1053,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="684">
+  <cellStyles count="722">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1360,6 +1398,25 @@
     <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1697,6 +1754,25 @@
     <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2149,7 +2225,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3759,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H66"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4172,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>18700</v>
@@ -4198,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>21076</v>
@@ -4224,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>23526</v>
@@ -4250,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>26048</v>
@@ -4276,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>28642</v>
@@ -4302,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>31310</v>
@@ -4328,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>34050</v>
@@ -4354,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>36864</v>
@@ -4380,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>39750</v>
@@ -4406,10 +4482,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>42708</v>
@@ -4432,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>45740</v>
@@ -4458,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>48844</v>
@@ -4484,10 +4560,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>52022</v>
@@ -4510,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F29" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>55272</v>
@@ -4536,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>58594</v>
@@ -4562,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>61990</v>
@@ -4588,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>65458</v>
@@ -4614,10 +4690,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>69000</v>
@@ -4640,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>72614</v>
@@ -4666,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>76300</v>
@@ -4692,10 +4768,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F36" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>80060</v>
@@ -4718,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>83892</v>
@@ -4744,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F38" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>87798</v>
@@ -4770,10 +4846,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>91776</v>
@@ -4796,10 +4872,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>95826</v>
@@ -4822,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F41" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>99950</v>
@@ -4848,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F42" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>104146</v>
@@ -4874,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F43" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>108416</v>
@@ -4900,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F44" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>112758</v>
@@ -4926,10 +5002,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F45" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>117172</v>
@@ -4952,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>121660</v>
@@ -4978,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>126220</v>
@@ -5004,10 +5080,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="F48" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>130854</v>
@@ -5030,10 +5106,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F49" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>135560</v>
@@ -5056,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F50" s="1">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>140338</v>
@@ -5082,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F51" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>145190</v>
@@ -5108,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F52" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>150114</v>
@@ -5134,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F53" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>155112</v>
@@ -5160,10 +5236,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F54" s="1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>160182</v>
@@ -5186,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F55" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>165324</v>
@@ -5212,10 +5288,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F56" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>170540</v>
@@ -5238,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>175828</v>
@@ -5264,10 +5340,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="F58" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>181190</v>
@@ -5290,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F59" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>186624</v>
@@ -5316,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F60" s="1">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>192130</v>
@@ -5342,10 +5418,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F61" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>197710</v>
@@ -5370,7 +5446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A56" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H63"/>
     </sheetView>
   </sheetViews>
@@ -6981,7 +7057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A51" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H66"/>
     </sheetView>
   </sheetViews>
@@ -8592,7 +8668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A78" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H67"/>
     </sheetView>
   </sheetViews>
@@ -10203,7 +10279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A51" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H64"/>
     </sheetView>
   </sheetViews>
@@ -13425,8 +13501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H62"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13838,10 +13914,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>32430</v>
@@ -13864,10 +13940,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>36269</v>
@@ -13890,10 +13966,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>40225</v>
@@ -13916,10 +13992,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>44299</v>
@@ -13942,10 +14018,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>48491</v>
@@ -13968,10 +14044,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>52800</v>
@@ -13994,10 +14070,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>57227</v>
@@ -14020,10 +14096,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>61771</v>
@@ -14046,10 +14122,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>66433</v>
@@ -14072,10 +14148,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>71213</v>
@@ -14098,10 +14174,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>76110</v>
@@ -14124,10 +14200,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>81125</v>
@@ -14150,10 +14226,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F28" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>86257</v>
@@ -14176,10 +14252,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F29" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>91507</v>
@@ -14202,10 +14278,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>96875</v>
@@ -14228,10 +14304,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F31" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>102360</v>
@@ -14254,10 +14330,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>107963</v>
@@ -14280,10 +14356,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>113683</v>
@@ -14306,10 +14382,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>119521</v>
@@ -14332,10 +14408,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>125477</v>
@@ -14358,10 +14434,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F36" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>131550</v>
@@ -14384,10 +14460,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>137741</v>
@@ -14410,10 +14486,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F38" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>144049</v>
@@ -14436,10 +14512,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>150475</v>
@@ -14462,10 +14538,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>157019</v>
@@ -14488,10 +14564,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F41" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>163680</v>
@@ -14514,10 +14590,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F42" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>170459</v>
@@ -14540,10 +14616,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F43" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>177355</v>
@@ -14566,10 +14642,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F44" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>184369</v>
@@ -14592,10 +14668,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F45" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>191501</v>
@@ -14618,10 +14694,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>198750</v>
@@ -14644,10 +14720,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>206117</v>
@@ -14670,10 +14746,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="F48" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>213601</v>
@@ -14696,10 +14772,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F49" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>221203</v>
@@ -14722,10 +14798,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F50" s="1">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>228923</v>
@@ -14748,10 +14824,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F51" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>236760</v>
@@ -14774,10 +14850,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F52" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>244715</v>
@@ -14800,10 +14876,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F53" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>252787</v>
@@ -14826,10 +14902,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F54" s="1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>260977</v>
@@ -14852,10 +14928,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F55" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>269285</v>
@@ -14878,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F56" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>277710</v>
@@ -14904,10 +14980,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>286253</v>
@@ -14930,10 +15006,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="F58" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>294913</v>
@@ -14956,10 +15032,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F59" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>303691</v>
@@ -14982,10 +15058,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F60" s="1">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>312587</v>
@@ -15008,10 +15084,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F61" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>321600</v>
@@ -16647,7 +16723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -18258,8 +18334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -18665,7 +18741,7 @@
         <v>21790</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -18674,7 +18750,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>32060</v>
@@ -18691,7 +18767,7 @@
         <v>25540</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -18700,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>36082</v>
@@ -18717,7 +18793,7 @@
         <v>28070</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -18726,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>40226</v>
@@ -18743,7 +18819,7 @@
         <v>30820</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -18752,7 +18828,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>44494</v>
@@ -18769,7 +18845,7 @@
         <v>33890</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -18778,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>48886</v>
@@ -18795,7 +18871,7 @@
         <v>37190</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -18804,7 +18880,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>53400</v>
@@ -18821,7 +18897,7 @@
         <v>40820</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -18830,7 +18906,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>58038</v>
@@ -18847,7 +18923,7 @@
         <v>44890</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -18856,7 +18932,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>62798</v>
@@ -18873,7 +18949,7 @@
         <v>49410</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -18882,7 +18958,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>67682</v>
@@ -18899,7 +18975,7 @@
         <v>61070</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -18908,7 +18984,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>72690</v>
@@ -18925,7 +19001,7 @@
         <v>67550</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -18934,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>77820</v>
@@ -18951,7 +19027,7 @@
         <v>74920</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -18960,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>83074</v>
@@ -18977,7 +19053,7 @@
         <v>83170</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -18986,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>88450</v>
@@ -19003,7 +19079,7 @@
         <v>92420</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -19012,7 +19088,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>93950</v>
@@ -19029,7 +19105,7 @@
         <v>102650</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -19038,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>99574</v>
@@ -19055,7 +19131,7 @@
         <v>114200</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -19064,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>105320</v>
@@ -19081,7 +19157,7 @@
         <v>127070</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -19090,7 +19166,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>111190</v>
@@ -19107,7 +19183,7 @@
         <v>162370</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -19116,7 +19192,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>117182</v>
@@ -19133,7 +19209,7 @@
         <v>181630</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -19142,7 +19218,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>123298</v>
@@ -19159,7 +19235,7 @@
         <v>203080</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -19168,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>129538</v>
@@ -19185,7 +19261,7 @@
         <v>227170</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -19194,7 +19270,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>135900</v>
@@ -19211,7 +19287,7 @@
         <v>254340</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -19220,7 +19296,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>142386</v>
@@ -19237,7 +19313,7 @@
         <v>284580</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -19246,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>148994</v>
@@ -19263,7 +19339,7 @@
         <v>318790</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -19272,7 +19348,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>155726</v>
@@ -19289,7 +19365,7 @@
         <v>357070</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -19298,7 +19374,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>162582</v>
@@ -19315,7 +19391,7 @@
         <v>459270</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -19324,7 +19400,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>169560</v>
@@ -19341,7 +19417,7 @@
         <v>515150</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -19350,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>176662</v>
@@ -19367,7 +19443,7 @@
         <v>577840</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -19376,7 +19452,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>183886</v>
@@ -19393,7 +19469,7 @@
         <v>648130</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -19402,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>191234</v>
@@ -19419,7 +19495,7 @@
         <v>726900</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -19428,7 +19504,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>198706</v>
@@ -19445,7 +19521,7 @@
         <v>815010</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -19454,7 +19530,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>206300</v>
@@ -19471,7 +19547,7 @@
         <v>913680</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -19480,7 +19556,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>214018</v>
@@ -19497,7 +19573,7 @@
         <v>1023900</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -19506,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>221858</v>
@@ -19523,7 +19599,7 @@
         <v>1303510</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -19532,7 +19608,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>229822</v>
@@ -19549,7 +19625,7 @@
         <v>1461260</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -19558,7 +19634,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>237910</v>
@@ -19575,7 +19651,7 @@
         <v>1637260</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -19584,7 +19660,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>246120</v>
@@ -19601,7 +19677,7 @@
         <v>1833720</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -19610,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>254454</v>
@@ -19627,7 +19703,7 @@
         <v>2053610</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -19636,7 +19712,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>262910</v>
@@ -19653,7 +19729,7 @@
         <v>2298900</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -19662,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>271490</v>
@@ -19679,7 +19755,7 @@
         <v>2572800</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -19688,7 +19764,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>280194</v>
@@ -19705,7 +19781,7 @@
         <v>2878600</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -19714,7 +19790,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>289020</v>
@@ -19731,7 +19807,7 @@
         <v>3219610</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -19740,7 +19816,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>297970</v>
@@ -19757,7 +19833,7 @@
         <v>3599110</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -19766,7 +19842,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>307042</v>
@@ -19783,7 +19859,7 @@
         <v>4023710</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -19792,7 +19868,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>316238</v>
@@ -19809,7 +19885,7 @@
         <v>4495600</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -19818,7 +19894,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>325558</v>
@@ -19835,7 +19911,7 @@
         <v>5021400</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -19844,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>335000</v>
@@ -19870,7 +19946,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -20276,16 +20352,16 @@
         <v>26570</v>
       </c>
       <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>38380</v>
@@ -20302,16 +20378,16 @@
         <v>30990</v>
       </c>
       <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>43133</v>
@@ -20328,16 +20404,16 @@
         <v>33980</v>
       </c>
       <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
         <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>48031</v>
@@ -20354,16 +20430,16 @@
         <v>37230</v>
       </c>
       <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
         <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>53075</v>
@@ -20380,16 +20456,16 @@
         <v>40870</v>
       </c>
       <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
         <v>15</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>58265</v>
@@ -20406,16 +20482,16 @@
         <v>44770</v>
       </c>
       <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <v>20</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>63600</v>
@@ -20432,16 +20508,16 @@
         <v>49060</v>
       </c>
       <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>25</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>69081</v>
@@ -20458,16 +20534,16 @@
         <v>53870</v>
       </c>
       <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>30</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>74707</v>
@@ -20484,16 +20560,16 @@
         <v>59200</v>
       </c>
       <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
         <v>35</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>80479</v>
@@ -20510,16 +20586,16 @@
         <v>72980</v>
       </c>
       <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
         <v>40</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>86397</v>
@@ -20536,16 +20612,16 @@
         <v>80650</v>
       </c>
       <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
         <v>45</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>92460</v>
@@ -20562,16 +20638,16 @@
         <v>89360</v>
       </c>
       <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
         <v>50</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>98669</v>
@@ -20588,16 +20664,16 @@
         <v>99110</v>
       </c>
       <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
         <v>55</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>105023</v>
@@ -20614,16 +20690,16 @@
         <v>110030</v>
       </c>
       <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
         <v>60</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>111523</v>
@@ -20640,16 +20716,16 @@
         <v>122120</v>
       </c>
       <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <v>65</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>118169</v>
@@ -20666,16 +20742,16 @@
         <v>135770</v>
       </c>
       <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
         <v>70</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>124960</v>
@@ -20692,16 +20768,16 @@
         <v>150980</v>
       </c>
       <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
         <v>75</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>131897</v>
@@ -20718,16 +20794,16 @@
         <v>192710</v>
       </c>
       <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
         <v>80</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>138979</v>
@@ -20744,16 +20820,16 @@
         <v>215460</v>
       </c>
       <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
         <v>85</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>146207</v>
@@ -20770,16 +20846,16 @@
         <v>240810</v>
       </c>
       <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
         <v>90</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>153581</v>
@@ -20796,16 +20872,16 @@
         <v>269280</v>
       </c>
       <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
         <v>95</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>161100</v>
@@ -20822,16 +20898,16 @@
         <v>301390</v>
       </c>
       <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
         <v>100</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>168765</v>
@@ -20848,16 +20924,16 @@
         <v>337140</v>
       </c>
       <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <v>105</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>176575</v>
@@ -20874,16 +20950,16 @@
         <v>377570</v>
       </c>
       <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
         <v>110</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>184531</v>
@@ -20900,16 +20976,16 @@
         <v>422810</v>
       </c>
       <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
         <v>115</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>192633</v>
@@ -20926,16 +21002,16 @@
         <v>543580</v>
       </c>
       <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
         <v>120</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>200880</v>
@@ -20952,16 +21028,16 @@
         <v>609620</v>
       </c>
       <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
         <v>125</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>209273</v>
@@ -20978,16 +21054,16 @@
         <v>683720</v>
       </c>
       <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
         <v>130</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>217811</v>
@@ -21004,16 +21080,16 @@
         <v>766790</v>
       </c>
       <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
         <v>135</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>226495</v>
@@ -21030,16 +21106,16 @@
         <v>859870</v>
       </c>
       <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
         <v>140</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>235325</v>
@@ -21056,16 +21132,16 @@
         <v>964000</v>
       </c>
       <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
         <v>145</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>244300</v>
@@ -21082,16 +21158,16 @@
         <v>1080610</v>
       </c>
       <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
         <v>150</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>253421</v>
@@ -21108,16 +21184,16 @@
         <v>1210870</v>
       </c>
       <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
         <v>155</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>262687</v>
@@ -21134,16 +21210,16 @@
         <v>1541330</v>
       </c>
       <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
         <v>160</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>272099</v>
@@ -21160,16 +21236,16 @@
         <v>1727750</v>
       </c>
       <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
         <v>165</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>281657</v>
@@ -21186,16 +21262,16 @@
         <v>1935750</v>
       </c>
       <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
         <v>170</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>291360</v>
@@ -21212,16 +21288,16 @@
         <v>2167930</v>
       </c>
       <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
         <v>175</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>301209</v>
@@ -21238,16 +21314,16 @@
         <v>2427800</v>
       </c>
       <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
         <v>180</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>311203</v>
@@ -21264,16 +21340,16 @@
         <v>2717700</v>
       </c>
       <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
         <v>185</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>321343</v>
@@ -21290,16 +21366,16 @@
         <v>3041400</v>
       </c>
       <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
         <v>190</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>331629</v>
@@ -21316,16 +21392,16 @@
         <v>3402800</v>
       </c>
       <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
         <v>195</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>342060</v>
@@ -21342,16 +21418,16 @@
         <v>3805800</v>
       </c>
       <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
         <v>200</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>352637</v>
@@ -21368,16 +21444,16 @@
         <v>4254300</v>
       </c>
       <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
         <v>205</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>363359</v>
@@ -21394,16 +21470,16 @@
         <v>4756100</v>
       </c>
       <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
         <v>210</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>374227</v>
@@ -21420,16 +21496,16 @@
         <v>5313800</v>
       </c>
       <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
         <v>220</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>385241</v>
@@ -21446,16 +21522,16 @@
         <v>5935200</v>
       </c>
       <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
         <v>240</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>396400</v>
@@ -21481,7 +21557,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E2" sqref="E2:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -21893,10 +21969,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>32660</v>
@@ -21919,10 +21995,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>36682</v>
@@ -21945,10 +22021,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
         <v>5</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>40826</v>
@@ -21971,10 +22047,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
         <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>45094</v>
@@ -21997,10 +22073,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
         <v>15</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>49486</v>
@@ -22023,10 +22099,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <v>20</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>54000</v>
@@ -22049,10 +22125,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>25</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>58638</v>
@@ -22075,10 +22151,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>30</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>63398</v>
@@ -22101,10 +22177,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
         <v>35</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>68282</v>
@@ -22127,10 +22203,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
         <v>40</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>73290</v>
@@ -22153,10 +22229,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
         <v>45</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>78420</v>
@@ -22179,10 +22255,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
         <v>50</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>83674</v>
@@ -22205,10 +22281,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
         <v>55</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>89050</v>
@@ -22231,10 +22307,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
         <v>60</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>94550</v>
@@ -22257,10 +22333,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <v>65</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>100174</v>
@@ -22283,10 +22359,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
         <v>70</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>105920</v>
@@ -22309,10 +22385,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
         <v>75</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>111790</v>
@@ -22335,10 +22411,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
         <v>80</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>117782</v>
@@ -22361,10 +22437,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
         <v>85</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>123898</v>
@@ -22387,10 +22463,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
         <v>90</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>130138</v>
@@ -22413,10 +22489,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
         <v>95</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>136500</v>
@@ -22439,10 +22515,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
         <v>100</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>142986</v>
@@ -22465,10 +22541,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <v>105</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>149594</v>
@@ -22491,10 +22567,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
         <v>110</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>156326</v>
@@ -22517,10 +22593,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
         <v>115</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>163182</v>
@@ -22543,10 +22619,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
         <v>120</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
       </c>
       <c r="G41" s="1">
         <v>170160</v>
@@ -22569,10 +22645,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
         <v>125</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>177262</v>
@@ -22595,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
         <v>130</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>184486</v>
@@ -22621,10 +22697,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
         <v>135</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>191834</v>
@@ -22647,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
         <v>140</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>199306</v>
@@ -22673,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
         <v>145</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>206900</v>
@@ -22699,10 +22775,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
         <v>150</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>214618</v>
@@ -22725,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
         <v>155</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
       </c>
       <c r="G48" s="1">
         <v>222458</v>
@@ -22751,10 +22827,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
         <v>160</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>230422</v>
@@ -22777,10 +22853,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
         <v>165</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>238510</v>
@@ -22803,10 +22879,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
         <v>170</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>246720</v>
@@ -22829,10 +22905,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
         <v>175</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>255054</v>
@@ -22855,10 +22931,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
         <v>180</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>263510</v>
@@ -22881,10 +22957,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
         <v>185</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>272090</v>
@@ -22907,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
         <v>190</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>280794</v>
@@ -22933,10 +23009,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
         <v>195</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>289620</v>
@@ -22959,10 +23035,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
         <v>200</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>298570</v>
@@ -22985,10 +23061,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
         <v>205</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>307642</v>
@@ -23011,10 +23087,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
         <v>210</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>316838</v>
@@ -23037,10 +23113,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
         <v>220</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>326158</v>
@@ -23063,10 +23139,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
         <v>240</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>335600</v>
@@ -23092,7 +23168,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F61"/>
+      <selection activeCell="E15" sqref="E15:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -26314,7 +26390,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H62"/>
+      <selection activeCell="C2" sqref="C2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -27925,7 +28001,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H62"/>
+      <selection activeCell="E2" sqref="E2:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -28331,10 +28407,10 @@
         <v>25240</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -28357,10 +28433,10 @@
         <v>29150</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -28383,10 +28459,10 @@
         <v>31790</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -28409,10 +28485,10 @@
         <v>34670</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -28435,10 +28511,10 @@
         <v>37890</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -28461,10 +28537,10 @@
         <v>41340</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -28487,10 +28563,10 @@
         <v>45130</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -28513,10 +28589,10 @@
         <v>49390</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -28539,10 +28615,10 @@
         <v>54100</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -28565,10 +28641,10 @@
         <v>66290</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -28591,10 +28667,10 @@
         <v>73080</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -28617,10 +28693,10 @@
         <v>80780</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -28643,10 +28719,10 @@
         <v>89410</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -28669,10 +28745,10 @@
         <v>99070</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -28695,10 +28771,10 @@
         <v>109760</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -28721,10 +28797,10 @@
         <v>121840</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -28747,10 +28823,10 @@
         <v>135290</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -28773,10 +28849,10 @@
         <v>172210</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -28799,10 +28875,10 @@
         <v>192330</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -28825,10 +28901,10 @@
         <v>214760</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -28851,10 +28927,10 @@
         <v>239940</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -28877,10 +28953,10 @@
         <v>268350</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -28903,10 +28979,10 @@
         <v>299970</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -28929,10 +29005,10 @@
         <v>335740</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D39" s="1">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -28955,10 +29031,10 @@
         <v>375760</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -28981,10 +29057,10 @@
         <v>482590</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -29007,10 +29083,10 @@
         <v>541010</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -29033,10 +29109,10 @@
         <v>606560</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -29059,10 +29135,10 @@
         <v>680050</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -29085,10 +29161,10 @@
         <v>762390</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D45" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -29111,10 +29187,10 @@
         <v>854500</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D46" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -29137,10 +29213,10 @@
         <v>957660</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -29163,10 +29239,10 @@
         <v>1072890</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D48" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -29189,10 +29265,10 @@
         <v>1365220</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D49" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -29215,10 +29291,10 @@
         <v>1530130</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D50" s="1">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -29241,10 +29317,10 @@
         <v>1714130</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D51" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -29267,10 +29343,10 @@
         <v>1919520</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D52" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -29293,10 +29369,10 @@
         <v>2149400</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D53" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -29319,10 +29395,10 @@
         <v>2405850</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D54" s="1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -29345,10 +29421,10 @@
         <v>2692200</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D55" s="1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -29371,10 +29447,10 @@
         <v>3011900</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D56" s="1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -29397,10 +29473,10 @@
         <v>3368400</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D57" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -29423,10 +29499,10 @@
         <v>3765150</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D58" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -29449,10 +29525,10 @@
         <v>4209050</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="D59" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -29475,10 +29551,10 @@
         <v>4702400</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -29501,10 +29577,10 @@
         <v>5252100</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D61" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -29535,7 +29611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A54" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H72"/>
     </sheetView>
   </sheetViews>
